--- a/.preprocessing/Data Hasil TA.xlsx
+++ b/.preprocessing/Data Hasil TA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\important\Tugas Akhir (Skripsi)\Main File\file_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.Programming\.UploadGithub\ml-ui-heartdisease\.preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C960FA71-AD00-4AC0-AC62-7C94BCB28DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F034D2-7E9A-4C07-AF9C-BB064BC77915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,94 +1059,136 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,58 +1197,25 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1492,7 +1501,7 @@
   <dimension ref="B1:S108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S6"/>
+      <selection activeCell="B1" sqref="B1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,99 +1522,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="39" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1630,41 +1639,41 @@
       <c r="N4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="50">
         <v>0.01</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="49">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="47">
         <v>0.39100000000000001</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="47">
         <v>0.81810000000000005</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="47">
         <v>0.4587</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="47" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -1676,40 +1685,40 @@
       <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="36">
         <f>ROUND(($K5*0.5)+((($N5+$N6)/2)*0.5),4)</f>
         <v>0.77749999999999997</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="36">
         <f>ROUND(($K5*0.6)+((($N5+$N6)/2)*0.4),4)</f>
         <v>0.77800000000000002</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="36">
         <f>ROUND(($K5*0.7)+((($N5+$N6)/2)*0.3),4)</f>
         <v>0.77849999999999997</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="36">
         <f>ROUND(($K5*0.8)+((($N5+$N6)/2)*0.2),4)</f>
         <v>0.77900000000000003</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="36">
         <f>ROUND(($K5*0.9)+((($N5+$N6)/2)*0.1),4)</f>
         <v>0.77949999999999997</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1719,39 +1728,39 @@
       <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="36">
         <v>0.39810000000000001</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="47" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1763,40 +1772,40 @@
       <c r="N7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="36">
         <f t="shared" ref="O7" si="0">ROUND(($K7*0.5)+((($N7+$N8)/2)*0.5),4)</f>
         <v>0.82750000000000001</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="36">
         <f t="shared" ref="P7" si="1">ROUND(($K7*0.6)+((($N7+$N8)/2)*0.4),4)</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="36">
         <f t="shared" ref="Q7" si="2">ROUND(($K7*0.7)+((($N7+$N8)/2)*0.3),4)</f>
         <v>0.82850000000000001</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="36">
         <f t="shared" ref="R7" si="3">ROUND(($K7*0.8)+((($N7+$N8)/2)*0.2),4)</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="36">
         <f t="shared" ref="S7" si="4">ROUND(($K7*0.9)+((($N7+$N8)/2)*0.1),4)</f>
         <v>0.82950000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1806,39 +1815,39 @@
       <c r="N8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="53">
         <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="40">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="40">
         <v>0.26950000000000002</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="40">
         <v>0.90249999999999997</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="40" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="13">
@@ -1850,40 +1859,40 @@
       <c r="N9" s="13">
         <v>0.91</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="33">
         <f t="shared" ref="O9" si="5">ROUND(($K9*0.5)+((($N9+$N10)/2)*0.5),4)</f>
         <v>0.90249999999999997</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="33">
         <f t="shared" ref="P9" si="6">ROUND(($K9*0.6)+((($N9+$N10)/2)*0.4),4)</f>
         <v>0.90200000000000002</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="33">
         <f t="shared" ref="Q9" si="7">ROUND(($K9*0.7)+((($N9+$N10)/2)*0.3),4)</f>
         <v>0.90149999999999997</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="33">
         <f t="shared" ref="R9" si="8">ROUND(($K9*0.8)+((($N9+$N10)/2)*0.2),4)</f>
         <v>0.90100000000000002</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="33">
         <f t="shared" ref="S9" si="9">ROUND(($K9*0.9)+((($N9+$N10)/2)*0.1),4)</f>
         <v>0.90049999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="13">
         <v>0.94</v>
       </c>
@@ -1893,39 +1902,39 @@
       <c r="N10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="36">
         <v>0.21440000000000001</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="36">
         <v>0.33760000000000001</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="36">
         <v>0.88</v>
       </c>
       <c r="L11" s="3">
@@ -1937,40 +1946,40 @@
       <c r="N11" s="3">
         <v>0.89</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="36">
         <f t="shared" ref="O11" si="10">ROUND(($K11*0.5)+((($N11+$N12)/2)*0.5),4)</f>
         <v>0.88249999999999995</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="36">
         <f t="shared" ref="P11" si="11">ROUND(($K11*0.6)+((($N11+$N12)/2)*0.4),4)</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="36">
         <f t="shared" ref="Q11" si="12">ROUND(($K11*0.7)+((($N11+$N12)/2)*0.3),4)</f>
         <v>0.88149999999999995</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="36">
         <f t="shared" ref="R11" si="13">ROUND(($K11*0.8)+((($N11+$N12)/2)*0.2),4)</f>
         <v>0.88100000000000001</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="36">
         <f t="shared" ref="S11" si="14">ROUND(($K11*0.9)+((($N11+$N12)/2)*0.1),4)</f>
         <v>0.88049999999999995</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1980,84 +1989,84 @@
       <c r="N12" s="3">
         <v>0.88</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="49" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="39" t="s">
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="8" t="s">
         <v>1</v>
       </c>
@@ -2082,41 +2091,41 @@
       <c r="N15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="50">
         <v>0.01</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="49">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="47" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -2128,40 +2137,40 @@
       <c r="N16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="36">
         <f t="shared" ref="O16" si="15">ROUND(($K16*0.5)+((($N16+$N17)/2)*0.5),4)</f>
         <v>0.81</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="36">
         <f>ROUND(($K16*0.6)+((($N16+$N17)/2)*0.4),4)</f>
         <v>0.81</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="36">
         <f>ROUND(($K16*0.7)+((($N16+$N17)/2)*0.3),4)</f>
         <v>0.81</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="36">
         <f>ROUND(($K16*0.8)+((($N16+$N17)/2)*0.2),4)</f>
         <v>0.81</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="36">
         <f>ROUND(($K16*0.9)+((($N16+$N17)/2)*0.1),4)</f>
         <v>0.81</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2171,39 +2180,39 @@
       <c r="N17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="49">
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="36">
         <v>0.41010000000000002</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -2215,40 +2224,40 @@
       <c r="N18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="36">
         <f t="shared" ref="O18" si="16">ROUND(($K18*0.5)+((($N18+$N19)/2)*0.5),4)</f>
         <v>0.87</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18" s="36">
         <f t="shared" ref="P18" si="17">ROUND(($K18*0.6)+((($N18+$N19)/2)*0.4),4)</f>
         <v>0.87</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="36">
         <f t="shared" ref="Q18" si="18">ROUND(($K18*0.7)+((($N18+$N19)/2)*0.3),4)</f>
         <v>0.87</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="36">
         <f t="shared" ref="R18" si="19">ROUND(($K18*0.8)+((($N18+$N19)/2)*0.2),4)</f>
         <v>0.87</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="36">
         <f t="shared" ref="S18" si="20">ROUND(($K18*0.9)+((($N18+$N19)/2)*0.1),4)</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2258,39 +2267,39 @@
       <c r="N19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="53">
         <v>10</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="40" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="13" t="s">
@@ -2302,40 +2311,40 @@
       <c r="N20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="33">
         <f>ROUND(($K20*0.5)+((($N20+$N21)/2)*0.5),4)</f>
         <v>0.86750000000000005</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="33">
         <f t="shared" ref="P20" si="21">ROUND(($K20*0.6)+((($N20+$N21)/2)*0.4),4)</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="33">
         <f t="shared" ref="Q20" si="22">ROUND(($K20*0.7)+((($N20+$N21)/2)*0.3),4)</f>
         <v>0.86850000000000005</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="33">
         <f t="shared" ref="R20" si="23">ROUND(($K20*0.8)+((($N20+$N21)/2)*0.2),4)</f>
         <v>0.86899999999999999</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="33">
         <f t="shared" ref="S20" si="24">ROUND(($K20*0.9)+((($N20+$N21)/2)*0.1),4)</f>
         <v>0.86950000000000005</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="13" t="s">
         <v>55</v>
       </c>
@@ -2345,39 +2354,39 @@
       <c r="N21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="49">
         <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="36">
         <v>0.2291</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="36">
         <v>0.92190000000000005</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="36">
         <v>0.35809999999999997</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="36">
         <v>0.87</v>
       </c>
       <c r="L22" s="3">
@@ -2389,40 +2398,40 @@
       <c r="N22" s="3">
         <v>0.87</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="36">
         <f t="shared" ref="O22" si="25">ROUND(($K22*0.5)+((($N22+$N23)/2)*0.5),4)</f>
         <v>0.86750000000000005</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="36">
         <f t="shared" ref="P22" si="26">ROUND(($K22*0.6)+((($N22+$N23)/2)*0.4),4)</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="36">
         <f t="shared" ref="Q22" si="27">ROUND(($K22*0.7)+((($N22+$N23)/2)*0.3),4)</f>
         <v>0.86850000000000005</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="36">
         <f t="shared" ref="R22" si="28">ROUND(($K22*0.8)+((($N22+$N23)/2)*0.2),4)</f>
         <v>0.86899999999999999</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="36">
         <f t="shared" ref="S22" si="29">ROUND(($K22*0.9)+((($N22+$N23)/2)*0.1),4)</f>
         <v>0.86950000000000005</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="6" t="s">
         <v>30</v>
       </c>
@@ -2432,84 +2441,84 @@
       <c r="N23" s="3">
         <v>0.86</v>
       </c>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
     </row>
     <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="49" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50" t="s">
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="39" t="s">
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="Q25" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S25" s="39" t="s">
+      <c r="S25" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="8" t="s">
         <v>1</v>
       </c>
@@ -2534,41 +2543,41 @@
       <c r="N26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="50">
         <v>0.01</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="49">
         <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="47" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -2580,40 +2589,40 @@
       <c r="N27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="35">
+      <c r="O27" s="36">
         <f>ROUND(($K27*0.5)+((($N27+$N28)/2)*0.5),4)</f>
         <v>0.89</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="36">
         <f>ROUND(($K27*0.6)+((($N27+$N28)/2)*0.4),4)</f>
         <v>0.89</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="36">
         <f>ROUND(($K27*0.7)+((($N27+$N28)/2)*0.3),4)</f>
         <v>0.89</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="36">
         <f>ROUND(($K27*0.8)+((($N27+$N28)/2)*0.2),4)</f>
         <v>0.89</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="36">
         <f>ROUND(($K27*0.9)+((($N27+$N28)/2)*0.1),4)</f>
         <v>0.89</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="5" t="s">
         <v>34</v>
       </c>
@@ -2623,39 +2632,39 @@
       <c r="N28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="49">
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="H29" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="36">
         <v>0.51280000000000003</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="47" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -2667,40 +2676,40 @@
       <c r="N29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="36">
         <f t="shared" ref="O29" si="30">ROUND(($K29*0.5)+((($N29+$N30)/2)*0.5),4)</f>
         <v>0.9</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="36">
         <f t="shared" ref="P29" si="31">ROUND(($K29*0.6)+((($N29+$N30)/2)*0.4),4)</f>
         <v>0.9</v>
       </c>
-      <c r="Q29" s="35">
+      <c r="Q29" s="36">
         <f t="shared" ref="Q29" si="32">ROUND(($K29*0.7)+((($N29+$N30)/2)*0.3),4)</f>
         <v>0.9</v>
       </c>
-      <c r="R29" s="35">
+      <c r="R29" s="36">
         <f t="shared" ref="R29" si="33">ROUND(($K29*0.8)+((($N29+$N30)/2)*0.2),4)</f>
         <v>0.9</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="36">
         <f t="shared" ref="S29" si="34">ROUND(($K29*0.9)+((($N29+$N30)/2)*0.1),4)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
@@ -2710,39 +2719,39 @@
       <c r="N30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="50">
         <v>1E-4</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="49">
         <v>10</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="6" t="s">
@@ -2754,40 +2763,40 @@
       <c r="N31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="36">
         <f t="shared" ref="O31" si="35">ROUND(($K31*0.5)+((($N31+$N32)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="36">
         <f t="shared" ref="P31" si="36">ROUND(($K31*0.6)+((($N31+$N32)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q31" s="36">
         <f t="shared" ref="Q31" si="37">ROUND(($K31*0.7)+((($N31+$N32)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R31" s="35">
+      <c r="R31" s="36">
         <f t="shared" ref="R31" si="38">ROUND(($K31*0.8)+((($N31+$N32)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="36">
         <f t="shared" ref="S31" si="39">ROUND(($K31*0.9)+((($N31+$N32)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="6" t="s">
         <v>55</v>
       </c>
@@ -2797,39 +2806,39 @@
       <c r="N32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="53">
         <v>10</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="33">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="33">
         <v>0.99809999999999999</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="33">
         <v>0.44340000000000002</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="33">
         <v>0.93</v>
       </c>
       <c r="L33" s="12">
@@ -2841,40 +2850,40 @@
       <c r="N33" s="12">
         <v>0.93</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="33">
         <f t="shared" ref="O33" si="40">ROUND(($K33*0.5)+((($N33+$N34)/2)*0.5),4)</f>
         <v>0.93</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="33">
         <f t="shared" ref="P33" si="41">ROUND(($K33*0.6)+((($N33+$N34)/2)*0.4),4)</f>
         <v>0.93</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="33">
         <f t="shared" ref="Q33" si="42">ROUND(($K33*0.7)+((($N33+$N34)/2)*0.3),4)</f>
         <v>0.93</v>
       </c>
-      <c r="R33" s="37">
+      <c r="R33" s="33">
         <f t="shared" ref="R33" si="43">ROUND(($K33*0.8)+((($N33+$N34)/2)*0.2),4)</f>
         <v>0.93</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="33">
         <f t="shared" ref="S33" si="44">ROUND(($K33*0.9)+((($N33+$N34)/2)*0.1),4)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="38"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="13" t="s">
         <v>71</v>
       </c>
@@ -2884,106 +2893,106 @@
       <c r="N34" s="12">
         <v>0.93</v>
       </c>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
     </row>
     <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
     </row>
     <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="49" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50" t="s">
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="39" t="s">
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q40" s="39" t="s">
+      <c r="Q40" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S40" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="8" t="s">
         <v>1</v>
       </c>
@@ -3008,41 +3017,41 @@
       <c r="N41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="50">
         <v>0.01</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="49">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="51" t="s">
+      <c r="J42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="51" t="s">
+      <c r="K42" s="47" t="s">
         <v>29</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -3054,40 +3063,40 @@
       <c r="N42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="35">
+      <c r="O42" s="36">
         <f>ROUND(($K42*0.5)+((($N42+$N43)/2)*0.5),4)</f>
         <v>0.83</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="36">
         <f>ROUND(($K42*0.6)+((($N42+$N43)/2)*0.4),4)</f>
         <v>0.83</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q42" s="36">
         <f>ROUND(($K42*0.7)+((($N42+$N43)/2)*0.3),4)</f>
         <v>0.83</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="36">
         <f>ROUND(($K42*0.8)+((($N42+$N43)/2)*0.2),4)</f>
         <v>0.83</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="36">
         <f>ROUND(($K42*0.9)+((($N42+$N43)/2)*0.1),4)</f>
         <v>0.83</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="56"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="5" t="s">
         <v>29</v>
       </c>
@@ -3097,39 +3106,39 @@
       <c r="N43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="56"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="45"/>
+      <c r="C44" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="49">
         <v>20</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="36">
         <v>0.43130000000000002</v>
       </c>
-      <c r="J44" s="51" t="s">
+      <c r="J44" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="51" t="s">
+      <c r="K44" s="47" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3141,40 +3150,40 @@
       <c r="N44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="35">
+      <c r="O44" s="36">
         <f>ROUND(($K44*0.5)+((($N44+$N45)/2)*0.5),4)</f>
         <v>0.83750000000000002</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="36">
         <f t="shared" ref="P44" si="45">ROUND(($K44*0.6)+((($N44+$N45)/2)*0.4),4)</f>
         <v>0.83799999999999997</v>
       </c>
-      <c r="Q44" s="35">
+      <c r="Q44" s="36">
         <f t="shared" ref="Q44" si="46">ROUND(($K44*0.7)+((($N44+$N45)/2)*0.3),4)</f>
         <v>0.83850000000000002</v>
       </c>
-      <c r="R44" s="35">
+      <c r="R44" s="36">
         <f t="shared" ref="R44" si="47">ROUND(($K44*0.8)+((($N44+$N45)/2)*0.2),4)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="S44" s="35">
+      <c r="S44" s="36">
         <f t="shared" ref="S44" si="48">ROUND(($K44*0.9)+((($N44+$N45)/2)*0.1),4)</f>
         <v>0.83950000000000002</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="56"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="5" t="s">
         <v>43</v>
       </c>
@@ -3184,39 +3193,39 @@
       <c r="N45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="56"/>
-      <c r="C46" s="45" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="53">
         <v>20</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="47" t="s">
+      <c r="H46" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K46" s="47" t="s">
+      <c r="K46" s="40" t="s">
         <v>80</v>
       </c>
       <c r="L46" s="13" t="s">
@@ -3228,40 +3237,40 @@
       <c r="N46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="33">
         <f>ROUND(($K46*0.5)+((($N46+$N47)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P46" s="37">
+      <c r="P46" s="33">
         <f t="shared" ref="P46" si="49">ROUND(($K46*0.6)+((($N46+$N47)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="33">
         <f t="shared" ref="Q46" si="50">ROUND(($K46*0.7)+((($N46+$N47)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R46" s="37">
+      <c r="R46" s="33">
         <f t="shared" ref="R46" si="51">ROUND(($K46*0.8)+((($N46+$N47)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S46" s="37">
+      <c r="S46" s="33">
         <f t="shared" ref="S46" si="52">ROUND(($K46*0.9)+((($N46+$N47)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="56"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
       <c r="L47" s="13" t="s">
         <v>71</v>
       </c>
@@ -3271,39 +3280,39 @@
       <c r="N47" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="56"/>
-      <c r="C48" s="42" t="s">
+      <c r="B48" s="45"/>
+      <c r="C48" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="49">
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="36">
         <v>0.15090000000000001</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="36">
         <v>0.9375</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="36">
         <v>0.3301</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="36">
         <v>0.91</v>
       </c>
       <c r="L48" s="3">
@@ -3315,40 +3324,40 @@
       <c r="N48" s="7">
         <v>0.91</v>
       </c>
-      <c r="O48" s="35">
+      <c r="O48" s="36">
         <f>ROUND(($K48*0.5)+((($N48+$N49)/2)*0.5),4)</f>
         <v>0.90749999999999997</v>
       </c>
-      <c r="P48" s="35">
+      <c r="P48" s="36">
         <f t="shared" ref="P48" si="53">ROUND(($K48*0.6)+((($N48+$N49)/2)*0.4),4)</f>
         <v>0.90800000000000003</v>
       </c>
-      <c r="Q48" s="35">
+      <c r="Q48" s="36">
         <f t="shared" ref="Q48" si="54">ROUND(($K48*0.7)+((($N48+$N49)/2)*0.3),4)</f>
         <v>0.90849999999999997</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="36">
         <f t="shared" ref="R48" si="55">ROUND(($K48*0.8)+((($N48+$N49)/2)*0.2),4)</f>
         <v>0.90900000000000003</v>
       </c>
-      <c r="S48" s="35">
+      <c r="S48" s="36">
         <f t="shared" ref="S48" si="56">ROUND(($K48*0.9)+((($N48+$N49)/2)*0.1),4)</f>
         <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="6" t="s">
         <v>82</v>
       </c>
@@ -3358,84 +3367,84 @@
       <c r="N49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="49" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50" t="s">
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="39" t="s">
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="P51" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q51" s="39" t="s">
+      <c r="Q51" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R51" s="39" t="s">
+      <c r="R51" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S51" s="39" t="s">
+      <c r="S51" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="8" t="s">
         <v>1</v>
       </c>
@@ -3460,41 +3469,41 @@
       <c r="N52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="50">
         <v>0.01</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="49">
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="J53" s="51" t="s">
+      <c r="J53" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="51" t="s">
+      <c r="K53" s="47" t="s">
         <v>25</v>
       </c>
       <c r="L53" s="5" t="s">
@@ -3506,40 +3515,40 @@
       <c r="N53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O53" s="35">
+      <c r="O53" s="36">
         <f>ROUND(($K53*0.5)+((($N53+$N54)/2)*0.5),4)</f>
         <v>0.8</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="36">
         <f>ROUND(($K53*0.6)+((($N53+$N54)/2)*0.4),4)</f>
         <v>0.8</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="Q53" s="36">
         <f>ROUND(($K53*0.7)+((($N53+$N54)/2)*0.3),4)</f>
         <v>0.8</v>
       </c>
-      <c r="R53" s="35">
+      <c r="R53" s="36">
         <f>ROUND(($K53*0.8)+((($N53+$N54)/2)*0.2),4)</f>
         <v>0.8</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="36">
         <f>ROUND(($K53*0.9)+((($N53+$N54)/2)*0.1),4)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="56"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
       <c r="L54" s="5" t="s">
         <v>86</v>
       </c>
@@ -3549,39 +3558,39 @@
       <c r="N54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="56"/>
-      <c r="C55" s="42" t="s">
+      <c r="B55" s="45"/>
+      <c r="C55" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="49">
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="51" t="s">
+      <c r="H55" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="36">
         <v>0.41760000000000003</v>
       </c>
-      <c r="J55" s="51" t="s">
+      <c r="J55" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K55" s="51" t="s">
+      <c r="K55" s="47" t="s">
         <v>50</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -3593,40 +3602,40 @@
       <c r="N55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O55" s="35">
+      <c r="O55" s="36">
         <f>ROUND(($K55*0.5)+((($N55+$N56)/2)*0.5),4)</f>
         <v>0.85250000000000004</v>
       </c>
-      <c r="P55" s="35">
+      <c r="P55" s="36">
         <f t="shared" ref="P55" si="57">ROUND(($K55*0.6)+((($N55+$N56)/2)*0.4),4)</f>
         <v>0.85199999999999998</v>
       </c>
-      <c r="Q55" s="35">
+      <c r="Q55" s="36">
         <f t="shared" ref="Q55" si="58">ROUND(($K55*0.7)+((($N55+$N56)/2)*0.3),4)</f>
         <v>0.85150000000000003</v>
       </c>
-      <c r="R55" s="35">
+      <c r="R55" s="36">
         <f t="shared" ref="R55" si="59">ROUND(($K55*0.8)+((($N55+$N56)/2)*0.2),4)</f>
         <v>0.85099999999999998</v>
       </c>
-      <c r="S55" s="35">
+      <c r="S55" s="36">
         <f t="shared" ref="S55" si="60">ROUND(($K55*0.9)+((($N55+$N56)/2)*0.1),4)</f>
         <v>0.85050000000000003</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="56"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
       <c r="L56" s="5" t="s">
         <v>29</v>
       </c>
@@ -3636,39 +3645,39 @@
       <c r="N56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="56"/>
-      <c r="C57" s="45" t="s">
+      <c r="B57" s="45"/>
+      <c r="C57" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="46">
+      <c r="D57" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="53">
         <v>20</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="47" t="s">
+      <c r="H57" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J57" s="47" t="s">
+      <c r="J57" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="K57" s="47" t="s">
+      <c r="K57" s="40" t="s">
         <v>71</v>
       </c>
       <c r="L57" s="13" t="s">
@@ -3680,40 +3689,40 @@
       <c r="N57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="33">
         <f>ROUND(($K57*0.5)+((($N57+$N58)/2)*0.5),4)</f>
         <v>0.9375</v>
       </c>
-      <c r="P57" s="37">
+      <c r="P57" s="33">
         <f t="shared" ref="P57" si="61">ROUND(($K57*0.6)+((($N57+$N58)/2)*0.4),4)</f>
         <v>0.93799999999999994</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="33">
         <f t="shared" ref="Q57" si="62">ROUND(($K57*0.7)+((($N57+$N58)/2)*0.3),4)</f>
         <v>0.9385</v>
       </c>
-      <c r="R57" s="37">
+      <c r="R57" s="33">
         <f t="shared" ref="R57" si="63">ROUND(($K57*0.8)+((($N57+$N58)/2)*0.2),4)</f>
         <v>0.93899999999999995</v>
       </c>
-      <c r="S57" s="37">
+      <c r="S57" s="33">
         <f t="shared" ref="S57" si="64">ROUND(($K57*0.9)+((($N57+$N58)/2)*0.1),4)</f>
         <v>0.9395</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="56"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
       <c r="L58" s="13" t="s">
         <v>71</v>
       </c>
@@ -3723,39 +3732,39 @@
       <c r="N58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="56"/>
-      <c r="C59" s="42" t="s">
+      <c r="B59" s="45"/>
+      <c r="C59" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="49">
         <v>20</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="36">
         <v>0.16370000000000001</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="36">
         <v>0.94059999999999999</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="36">
         <v>0.3306</v>
       </c>
-      <c r="J59" s="43" t="s">
+      <c r="J59" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="35">
+      <c r="K59" s="36">
         <v>0.89</v>
       </c>
       <c r="L59" s="3">
@@ -3767,40 +3776,40 @@
       <c r="N59" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O59" s="35">
+      <c r="O59" s="36">
         <f>ROUND(($K59*0.5)+((($N59+$N60)/2)*0.5),4)</f>
         <v>0.89249999999999996</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="36">
         <f t="shared" ref="P59" si="65">ROUND(($K59*0.6)+((($N59+$N60)/2)*0.4),4)</f>
         <v>0.89200000000000002</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="36">
         <f t="shared" ref="Q59" si="66">ROUND(($K59*0.7)+((($N59+$N60)/2)*0.3),4)</f>
         <v>0.89149999999999996</v>
       </c>
-      <c r="R59" s="35">
+      <c r="R59" s="36">
         <f t="shared" ref="R59" si="67">ROUND(($K59*0.8)+((($N59+$N60)/2)*0.2),4)</f>
         <v>0.89100000000000001</v>
       </c>
-      <c r="S59" s="35">
+      <c r="S59" s="36">
         <f t="shared" ref="S59" si="68">ROUND(($K59*0.9)+((($N59+$N60)/2)*0.1),4)</f>
         <v>0.89049999999999996</v>
       </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="37"/>
       <c r="L60" s="6" t="s">
         <v>30</v>
       </c>
@@ -3810,84 +3819,84 @@
       <c r="N60" s="3">
         <v>0.89</v>
       </c>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
     </row>
     <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="49" t="s">
+      <c r="D62" s="43"/>
+      <c r="E62" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="50" t="s">
+      <c r="G62" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50" t="s">
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="39" t="s">
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P62" s="39" t="s">
+      <c r="P62" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q62" s="39" t="s">
+      <c r="Q62" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R62" s="39" t="s">
+      <c r="R62" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S62" s="39" t="s">
+      <c r="S62" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="8" t="s">
         <v>1</v>
       </c>
@@ -3912,41 +3921,41 @@
       <c r="N63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="50">
         <v>0.01</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="49">
         <v>20</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="51" t="s">
+      <c r="H64" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="I64" s="51" t="s">
+      <c r="I64" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="J64" s="51" t="s">
+      <c r="J64" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="K64" s="51" t="s">
+      <c r="K64" s="47" t="s">
         <v>30</v>
       </c>
       <c r="L64" s="5" t="s">
@@ -3958,40 +3967,40 @@
       <c r="N64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O64" s="35">
+      <c r="O64" s="36">
         <f>ROUND(($K64*0.5)+((($N64+$N65)/2)*0.5),4)</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="36">
         <f>ROUND(($K64*0.6)+((($N64+$N65)/2)*0.4),4)</f>
         <v>0.91200000000000003</v>
       </c>
-      <c r="Q64" s="35">
+      <c r="Q64" s="36">
         <f>ROUND(($K64*0.7)+((($N64+$N65)/2)*0.3),4)</f>
         <v>0.91149999999999998</v>
       </c>
-      <c r="R64" s="35">
+      <c r="R64" s="36">
         <f>ROUND(($K64*0.8)+((($N64+$N65)/2)*0.2),4)</f>
         <v>0.91100000000000003</v>
       </c>
-      <c r="S64" s="35">
+      <c r="S64" s="36">
         <f>ROUND(($K64*0.9)+((($N64+$N65)/2)*0.1),4)</f>
         <v>0.91049999999999998</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="56"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
       <c r="L65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4001,39 +4010,39 @@
       <c r="N65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="56"/>
-      <c r="C66" s="42" t="s">
+      <c r="B66" s="45"/>
+      <c r="C66" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="49">
         <v>20</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="51" t="s">
+      <c r="G66" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="H66" s="51" t="s">
+      <c r="H66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="36">
         <v>0.54169999999999996</v>
       </c>
-      <c r="J66" s="51" t="s">
+      <c r="J66" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="K66" s="51" t="s">
+      <c r="K66" s="47" t="s">
         <v>30</v>
       </c>
       <c r="L66" s="5" t="s">
@@ -4045,40 +4054,40 @@
       <c r="N66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O66" s="35">
+      <c r="O66" s="36">
         <f>ROUND(($K66*0.5)+((($N66+$N67)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="36">
         <f t="shared" ref="P66" si="69">ROUND(($K66*0.6)+((($N66+$N67)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q66" s="35">
+      <c r="Q66" s="36">
         <f t="shared" ref="Q66" si="70">ROUND(($K66*0.7)+((($N66+$N67)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R66" s="35">
+      <c r="R66" s="36">
         <f t="shared" ref="R66" si="71">ROUND(($K66*0.8)+((($N66+$N67)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S66" s="35">
+      <c r="S66" s="36">
         <f t="shared" ref="S66" si="72">ROUND(($K66*0.9)+((($N66+$N67)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="56"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
       <c r="L67" s="5" t="s">
         <v>82</v>
       </c>
@@ -4088,39 +4097,39 @@
       <c r="N67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="56"/>
-      <c r="C68" s="42" t="s">
+      <c r="B68" s="45"/>
+      <c r="C68" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="50">
         <v>1E-4</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="49">
         <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="43" t="s">
+      <c r="G68" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="H68" s="43" t="s">
+      <c r="H68" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="J68" s="43" t="s">
+      <c r="J68" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K68" s="43" t="s">
+      <c r="K68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L68" s="6" t="s">
@@ -4132,40 +4141,40 @@
       <c r="N68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O68" s="35">
+      <c r="O68" s="36">
         <f>ROUND(($K68*0.5)+((($N68+$N69)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P68" s="35">
+      <c r="P68" s="36">
         <f t="shared" ref="P68" si="73">ROUND(($K68*0.6)+((($N68+$N69)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q68" s="35">
+      <c r="Q68" s="36">
         <f t="shared" ref="Q68" si="74">ROUND(($K68*0.7)+((($N68+$N69)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R68" s="35">
+      <c r="R68" s="36">
         <f t="shared" ref="R68" si="75">ROUND(($K68*0.8)+((($N68+$N69)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S68" s="35">
+      <c r="S68" s="36">
         <f t="shared" ref="S68" si="76">ROUND(($K68*0.9)+((($N68+$N69)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="56"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
       <c r="L69" s="6" t="s">
         <v>71</v>
       </c>
@@ -4175,39 +4184,39 @@
       <c r="N69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="56"/>
-      <c r="C70" s="45" t="s">
+      <c r="B70" s="45"/>
+      <c r="C70" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E70" s="53">
         <v>20</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="40">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H70" s="37">
+      <c r="H70" s="33">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="33">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J70" s="47" t="s">
+      <c r="J70" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K70" s="37">
+      <c r="K70" s="33">
         <v>0.92</v>
       </c>
       <c r="L70" s="15" t="s">
@@ -4219,40 +4228,40 @@
       <c r="N70" s="12">
         <v>0.92</v>
       </c>
-      <c r="O70" s="37">
+      <c r="O70" s="33">
         <f>ROUND(($K70*0.5)+((($N70+$N71)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P70" s="37">
+      <c r="P70" s="33">
         <f t="shared" ref="P70" si="77">ROUND(($K70*0.6)+((($N70+$N71)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q70" s="37">
+      <c r="Q70" s="33">
         <f t="shared" ref="Q70" si="78">ROUND(($K70*0.7)+((($N70+$N71)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R70" s="37">
+      <c r="R70" s="33">
         <f t="shared" ref="R70" si="79">ROUND(($K70*0.8)+((($N70+$N71)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S70" s="37">
+      <c r="S70" s="33">
         <f t="shared" ref="S70" si="80">ROUND(($K70*0.9)+((($N70+$N71)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="38"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="13" t="s">
         <v>71</v>
       </c>
@@ -4262,106 +4271,106 @@
       <c r="N71" s="12">
         <v>0.92</v>
       </c>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
     </row>
     <row r="75" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="33"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
     </row>
     <row r="77" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="54"/>
-      <c r="E77" s="49" t="s">
+      <c r="D77" s="43"/>
+      <c r="E77" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="49" t="s">
+      <c r="F77" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="50" t="s">
+      <c r="G77" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50" t="s">
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="39" t="s">
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R77" s="39" t="s">
+      <c r="R77" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S77" s="39" t="s">
+      <c r="S77" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="49"/>
+      <c r="B78" s="56"/>
       <c r="C78" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
       <c r="G78" s="8" t="s">
         <v>1</v>
       </c>
@@ -4386,41 +4395,41 @@
       <c r="N78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="50">
         <v>0.01</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="49">
         <v>30</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="51" t="s">
+      <c r="G79" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="H79" s="51" t="s">
+      <c r="H79" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I79" s="51" t="s">
+      <c r="I79" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="J79" s="51" t="s">
+      <c r="J79" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="K79" s="51" t="s">
+      <c r="K79" s="47" t="s">
         <v>43</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -4432,40 +4441,40 @@
       <c r="N79" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="36">
         <f t="shared" ref="O79" si="81">ROUND(($K79*0.5)+((($N79+$N80)/2)*0.5),4)</f>
         <v>0.79</v>
       </c>
-      <c r="P79" s="35">
+      <c r="P79" s="36">
         <f>ROUND(($K79*0.6)+((($N79+$N80)/2)*0.4),4)</f>
         <v>0.79</v>
       </c>
-      <c r="Q79" s="35">
+      <c r="Q79" s="36">
         <f>ROUND(($K79*0.7)+((($N79+$N80)/2)*0.3),4)</f>
         <v>0.79</v>
       </c>
-      <c r="R79" s="35">
+      <c r="R79" s="36">
         <f>ROUND(($K79*0.8)+((($N79+$N80)/2)*0.2),4)</f>
         <v>0.79</v>
       </c>
-      <c r="S79" s="35">
+      <c r="S79" s="36">
         <f>ROUND(($K79*0.9)+((($N79+$N80)/2)*0.1),4)</f>
         <v>0.79</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="56"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
       <c r="L80" s="5" t="s">
         <v>87</v>
       </c>
@@ -4475,39 +4484,39 @@
       <c r="N80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="56"/>
-      <c r="C81" s="42" t="s">
+      <c r="B81" s="45"/>
+      <c r="C81" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="49">
         <v>30</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="H81" s="51" t="s">
+      <c r="H81" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="I81" s="35">
+      <c r="I81" s="36">
         <v>0.37840000000000001</v>
       </c>
-      <c r="J81" s="51" t="s">
+      <c r="J81" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K81" s="51" t="s">
+      <c r="K81" s="47" t="s">
         <v>24</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -4519,40 +4528,40 @@
       <c r="N81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O81" s="35">
+      <c r="O81" s="36">
         <f t="shared" ref="O81" si="82">ROUND(($K81*0.5)+((($N81+$N82)/2)*0.5),4)</f>
         <v>0.88749999999999996</v>
       </c>
-      <c r="P81" s="35">
+      <c r="P81" s="36">
         <f t="shared" ref="P81" si="83">ROUND(($K81*0.6)+((($N81+$N82)/2)*0.4),4)</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="Q81" s="35">
+      <c r="Q81" s="36">
         <f t="shared" ref="Q81" si="84">ROUND(($K81*0.7)+((($N81+$N82)/2)*0.3),4)</f>
         <v>0.88849999999999996</v>
       </c>
-      <c r="R81" s="35">
+      <c r="R81" s="36">
         <f t="shared" ref="R81" si="85">ROUND(($K81*0.8)+((($N81+$N82)/2)*0.2),4)</f>
         <v>0.88900000000000001</v>
       </c>
-      <c r="S81" s="35">
+      <c r="S81" s="36">
         <f t="shared" ref="S81" si="86">ROUND(($K81*0.9)+((($N81+$N82)/2)*0.1),4)</f>
         <v>0.88949999999999996</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="56"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
       <c r="L82" s="5" t="s">
         <v>80</v>
       </c>
@@ -4562,39 +4571,39 @@
       <c r="N82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="56"/>
-      <c r="C83" s="45" t="s">
+      <c r="B83" s="45"/>
+      <c r="C83" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="46">
+      <c r="D83" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E83" s="45">
+      <c r="E83" s="53">
         <v>30</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="H83" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="J83" s="47" t="s">
+      <c r="J83" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="K83" s="47" t="s">
+      <c r="K83" s="40" t="s">
         <v>80</v>
       </c>
       <c r="L83" s="13" t="s">
@@ -4606,40 +4615,40 @@
       <c r="N83" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O83" s="37">
+      <c r="O83" s="33">
         <f t="shared" ref="O83" si="87">ROUND(($K83*0.5)+((($N83+$N84)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P83" s="37">
+      <c r="P83" s="33">
         <f t="shared" ref="P83" si="88">ROUND(($K83*0.6)+((($N83+$N84)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q83" s="37">
+      <c r="Q83" s="33">
         <f t="shared" ref="Q83" si="89">ROUND(($K83*0.7)+((($N83+$N84)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R83" s="37">
+      <c r="R83" s="33">
         <f t="shared" ref="R83" si="90">ROUND(($K83*0.8)+((($N83+$N84)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S83" s="37">
+      <c r="S83" s="33">
         <f t="shared" ref="S83" si="91">ROUND(($K83*0.9)+((($N83+$N84)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="56"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="53"/>
       <c r="F84" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
       <c r="L84" s="13" t="s">
         <v>71</v>
       </c>
@@ -4649,39 +4658,39 @@
       <c r="N84" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="56"/>
-      <c r="C85" s="42" t="s">
+      <c r="B85" s="45"/>
+      <c r="C85" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="49">
         <v>30</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G85" s="36">
         <v>0.14610000000000001</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="36">
         <v>0.94630000000000003</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="36">
         <v>0.35749999999999998</v>
       </c>
-      <c r="J85" s="43" t="s">
+      <c r="J85" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K85" s="35">
+      <c r="K85" s="36">
         <v>0.88</v>
       </c>
       <c r="L85" s="3">
@@ -4693,40 +4702,40 @@
       <c r="N85" s="7">
         <v>0.89</v>
       </c>
-      <c r="O85" s="35">
+      <c r="O85" s="36">
         <f t="shared" ref="O85" si="92">ROUND(($K85*0.5)+((($N85+$N86)/2)*0.5),4)</f>
         <v>0.88249999999999995</v>
       </c>
-      <c r="P85" s="35">
+      <c r="P85" s="36">
         <f t="shared" ref="P85" si="93">ROUND(($K85*0.6)+((($N85+$N86)/2)*0.4),4)</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q85" s="35">
+      <c r="Q85" s="36">
         <f t="shared" ref="Q85" si="94">ROUND(($K85*0.7)+((($N85+$N86)/2)*0.3),4)</f>
         <v>0.88149999999999995</v>
       </c>
-      <c r="R85" s="35">
+      <c r="R85" s="36">
         <f t="shared" ref="R85" si="95">ROUND(($K85*0.8)+((($N85+$N86)/2)*0.2),4)</f>
         <v>0.88100000000000001</v>
       </c>
-      <c r="S85" s="35">
+      <c r="S85" s="36">
         <f t="shared" ref="S85" si="96">ROUND(($K85*0.9)+((($N85+$N86)/2)*0.1),4)</f>
         <v>0.88049999999999995</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="37"/>
       <c r="L86" s="6" t="s">
         <v>30</v>
       </c>
@@ -4736,84 +4745,84 @@
       <c r="N86" s="7">
         <v>0.88</v>
       </c>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
     </row>
     <row r="88" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="49" t="s">
+      <c r="D88" s="43"/>
+      <c r="E88" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="49" t="s">
+      <c r="F88" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="50" t="s">
+      <c r="G88" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50" t="s">
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
+      <c r="K88" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="39" t="s">
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P88" s="39" t="s">
+      <c r="P88" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q88" s="39" t="s">
+      <c r="Q88" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R88" s="39" t="s">
+      <c r="R88" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S88" s="39" t="s">
+      <c r="S88" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="49"/>
+      <c r="B89" s="56"/>
       <c r="C89" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="8" t="s">
         <v>1</v>
       </c>
@@ -4838,41 +4847,41 @@
       <c r="N89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="50">
         <v>0.01</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E90" s="49">
         <v>30</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="51" t="s">
+      <c r="G90" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="H90" s="51" t="s">
+      <c r="H90" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="I90" s="51" t="s">
+      <c r="I90" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J90" s="51" t="s">
+      <c r="J90" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K90" s="51" t="s">
+      <c r="K90" s="47" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -4884,40 +4893,40 @@
       <c r="N90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O90" s="35">
+      <c r="O90" s="36">
         <f t="shared" ref="O90" si="97">ROUND(($K90*0.5)+((($N90+$N91)/2)*0.5),4)</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="P90" s="35">
+      <c r="P90" s="36">
         <f>ROUND(($K90*0.6)+((($N90+$N91)/2)*0.4),4)</f>
         <v>0.78200000000000003</v>
       </c>
-      <c r="Q90" s="35">
+      <c r="Q90" s="36">
         <f>ROUND(($K90*0.7)+((($N90+$N91)/2)*0.3),4)</f>
         <v>0.78149999999999997</v>
       </c>
-      <c r="R90" s="35">
+      <c r="R90" s="36">
         <f>ROUND(($K90*0.8)+((($N90+$N91)/2)*0.2),4)</f>
         <v>0.78100000000000003</v>
       </c>
-      <c r="S90" s="35">
+      <c r="S90" s="36">
         <f>ROUND(($K90*0.9)+((($N90+$N91)/2)*0.1),4)</f>
         <v>0.78049999999999997</v>
       </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="56"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
       <c r="L91" s="5" t="s">
         <v>87</v>
       </c>
@@ -4927,39 +4936,39 @@
       <c r="N91" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="56"/>
-      <c r="C92" s="42" t="s">
+      <c r="B92" s="45"/>
+      <c r="C92" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="41">
+      <c r="D92" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="49">
         <v>30</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="51" t="s">
+      <c r="G92" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="H92" s="51" t="s">
+      <c r="H92" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="36">
         <v>0.44579999999999997</v>
       </c>
-      <c r="J92" s="51" t="s">
+      <c r="J92" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="K92" s="51" t="s">
+      <c r="K92" s="47" t="s">
         <v>29</v>
       </c>
       <c r="L92" s="5" t="s">
@@ -4971,40 +4980,40 @@
       <c r="N92" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O92" s="35">
+      <c r="O92" s="36">
         <f t="shared" ref="O92" si="98">ROUND(($K92*0.5)+((($N92+$N93)/2)*0.5),4)</f>
         <v>0.83</v>
       </c>
-      <c r="P92" s="35">
+      <c r="P92" s="36">
         <f t="shared" ref="P92" si="99">ROUND(($K92*0.6)+((($N92+$N93)/2)*0.4),4)</f>
         <v>0.83</v>
       </c>
-      <c r="Q92" s="35">
+      <c r="Q92" s="36">
         <f t="shared" ref="Q92" si="100">ROUND(($K92*0.7)+((($N92+$N93)/2)*0.3),4)</f>
         <v>0.83</v>
       </c>
-      <c r="R92" s="35">
+      <c r="R92" s="36">
         <f t="shared" ref="R92" si="101">ROUND(($K92*0.8)+((($N92+$N93)/2)*0.2),4)</f>
         <v>0.83</v>
       </c>
-      <c r="S92" s="35">
+      <c r="S92" s="36">
         <f t="shared" ref="S92" si="102">ROUND(($K92*0.9)+((($N92+$N93)/2)*0.1),4)</f>
         <v>0.83</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="56"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="42"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="52"/>
-      <c r="K93" s="52"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
       <c r="L93" s="5" t="s">
         <v>30</v>
       </c>
@@ -5014,39 +5023,39 @@
       <c r="N93" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="56"/>
-      <c r="C94" s="45" t="s">
+      <c r="B94" s="45"/>
+      <c r="C94" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="46">
+      <c r="D94" s="54">
         <v>1E-4</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="53">
         <v>30</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="47" t="s">
+      <c r="G94" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H94" s="47" t="s">
+      <c r="H94" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="47" t="s">
+      <c r="I94" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J94" s="47" t="s">
+      <c r="J94" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="K94" s="47" t="s">
+      <c r="K94" s="40" t="s">
         <v>82</v>
       </c>
       <c r="L94" s="13" t="s">
@@ -5058,40 +5067,40 @@
       <c r="N94" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O94" s="37">
+      <c r="O94" s="33">
         <f t="shared" ref="O94" si="103">ROUND(($K94*0.5)+((($N94+$N95)/2)*0.5),4)</f>
         <v>0.92749999999999999</v>
       </c>
-      <c r="P94" s="37">
+      <c r="P94" s="33">
         <f t="shared" ref="P94" si="104">ROUND(($K94*0.6)+((($N94+$N95)/2)*0.4),4)</f>
         <v>0.92800000000000005</v>
       </c>
-      <c r="Q94" s="37">
+      <c r="Q94" s="33">
         <f t="shared" ref="Q94" si="105">ROUND(($K94*0.7)+((($N94+$N95)/2)*0.3),4)</f>
         <v>0.92849999999999999</v>
       </c>
-      <c r="R94" s="37">
+      <c r="R94" s="33">
         <f t="shared" ref="R94" si="106">ROUND(($K94*0.8)+((($N94+$N95)/2)*0.2),4)</f>
         <v>0.92900000000000005</v>
       </c>
-      <c r="S94" s="37">
+      <c r="S94" s="33">
         <f t="shared" ref="S94" si="107">ROUND(($K94*0.9)+((($N94+$N95)/2)*0.1),4)</f>
         <v>0.92949999999999999</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="56"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
       <c r="L95" s="13" t="s">
         <v>71</v>
       </c>
@@ -5101,39 +5110,39 @@
       <c r="N95" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="56"/>
-      <c r="C96" s="42" t="s">
+      <c r="B96" s="45"/>
+      <c r="C96" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="42">
+      <c r="E96" s="49">
         <v>30</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="36">
         <v>0.1195</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="36">
         <v>0.95440000000000003</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="36">
         <v>0.29320000000000002</v>
       </c>
-      <c r="J96" s="43" t="s">
+      <c r="J96" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="K96" s="35">
+      <c r="K96" s="36">
         <v>0.92</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -5145,40 +5154,40 @@
       <c r="N96" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O96" s="35">
+      <c r="O96" s="36">
         <f t="shared" ref="O96" si="108">ROUND(($K96*0.5)+((($N96+$N97)/2)*0.5),4)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="P96" s="35">
+      <c r="P96" s="36">
         <f t="shared" ref="P96" si="109">ROUND(($K96*0.6)+((($N96+$N97)/2)*0.4),4)</f>
         <v>0.91800000000000004</v>
       </c>
-      <c r="Q96" s="35">
+      <c r="Q96" s="36">
         <f t="shared" ref="Q96" si="110">ROUND(($K96*0.7)+((($N96+$N97)/2)*0.3),4)</f>
         <v>0.91849999999999998</v>
       </c>
-      <c r="R96" s="35">
+      <c r="R96" s="36">
         <f t="shared" ref="R96" si="111">ROUND(($K96*0.8)+((($N96+$N97)/2)*0.2),4)</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="S96" s="35">
+      <c r="S96" s="36">
         <f t="shared" ref="S96" si="112">ROUND(($K96*0.9)+((($N96+$N97)/2)*0.1),4)</f>
         <v>0.91949999999999998</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="42"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="36"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="37"/>
       <c r="L97" s="6" t="s">
         <v>82</v>
       </c>
@@ -5188,84 +5197,84 @@
       <c r="N97" s="3">
         <v>0.91</v>
       </c>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="59"/>
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C99" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="54"/>
-      <c r="E99" s="49" t="s">
+      <c r="D99" s="43"/>
+      <c r="E99" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F99" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G99" s="50" t="s">
+      <c r="G99" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50" t="s">
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="L99" s="50"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="39" t="s">
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P99" s="39" t="s">
+      <c r="P99" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q99" s="39" t="s">
+      <c r="Q99" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R99" s="39" t="s">
+      <c r="R99" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S99" s="39" t="s">
+      <c r="S99" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="100" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
+      <c r="B100" s="56"/>
       <c r="C100" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
       <c r="G100" s="8" t="s">
         <v>1</v>
       </c>
@@ -5290,41 +5299,41 @@
       <c r="N100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="41">
+      <c r="D101" s="50">
         <v>0.01</v>
       </c>
-      <c r="E101" s="42">
+      <c r="E101" s="49">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="H101" s="51" t="s">
+      <c r="H101" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="I101" s="51" t="s">
+      <c r="I101" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J101" s="51" t="s">
+      <c r="J101" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="51" t="s">
+      <c r="K101" s="47" t="s">
         <v>30</v>
       </c>
       <c r="L101" s="5" t="s">
@@ -5336,40 +5345,40 @@
       <c r="N101" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O101" s="35">
+      <c r="O101" s="36">
         <f t="shared" ref="O101" si="113">ROUND(($K101*0.5)+((($N101+$N102)/2)*0.5),4)</f>
         <v>0.90749999999999997</v>
       </c>
-      <c r="P101" s="35">
+      <c r="P101" s="36">
         <f>ROUND(($K101*0.6)+((($N101+$N102)/2)*0.4),4)</f>
         <v>0.90800000000000003</v>
       </c>
-      <c r="Q101" s="35">
+      <c r="Q101" s="36">
         <f>ROUND(($K101*0.7)+((($N101+$N102)/2)*0.3),4)</f>
         <v>0.90849999999999997</v>
       </c>
-      <c r="R101" s="35">
+      <c r="R101" s="36">
         <f>ROUND(($K101*0.8)+((($N101+$N102)/2)*0.2),4)</f>
         <v>0.90900000000000003</v>
       </c>
-      <c r="S101" s="35">
+      <c r="S101" s="36">
         <f>ROUND(($K101*0.9)+((($N101+$N102)/2)*0.1),4)</f>
         <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="56"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="42"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="49"/>
       <c r="F102" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
       <c r="L102" s="5" t="s">
         <v>71</v>
       </c>
@@ -5379,39 +5388,39 @@
       <c r="N102" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B103" s="56"/>
-      <c r="C103" s="42" t="s">
+      <c r="B103" s="45"/>
+      <c r="C103" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103" s="50">
         <v>1E-3</v>
       </c>
-      <c r="E103" s="42">
+      <c r="E103" s="49">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G103" s="51" t="s">
+      <c r="G103" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="H103" s="51" t="s">
+      <c r="H103" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I103" s="35">
+      <c r="I103" s="36">
         <v>0.60680000000000001</v>
       </c>
-      <c r="J103" s="51" t="s">
+      <c r="J103" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="51" t="s">
+      <c r="K103" s="47" t="s">
         <v>30</v>
       </c>
       <c r="L103" s="5" t="s">
@@ -5423,40 +5432,40 @@
       <c r="N103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="35">
+      <c r="O103" s="36">
         <f t="shared" ref="O103" si="114">ROUND(($K103*0.5)+((($N103+$N104)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P103" s="35">
+      <c r="P103" s="36">
         <f t="shared" ref="P103" si="115">ROUND(($K103*0.6)+((($N103+$N104)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q103" s="35">
+      <c r="Q103" s="36">
         <f t="shared" ref="Q103" si="116">ROUND(($K103*0.7)+((($N103+$N104)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R103" s="35">
+      <c r="R103" s="36">
         <f t="shared" ref="R103" si="117">ROUND(($K103*0.8)+((($N103+$N104)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S103" s="35">
+      <c r="S103" s="36">
         <f t="shared" ref="S103" si="118">ROUND(($K103*0.9)+((($N103+$N104)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B104" s="56"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="42"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="52"/>
-      <c r="K104" s="52"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
       <c r="L104" s="5" t="s">
         <v>71</v>
       </c>
@@ -5466,39 +5475,39 @@
       <c r="N104" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B105" s="56"/>
-      <c r="C105" s="42" t="s">
+      <c r="B105" s="45"/>
+      <c r="C105" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105" s="50">
         <v>1E-4</v>
       </c>
-      <c r="E105" s="42">
+      <c r="E105" s="49">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="43" t="s">
+      <c r="G105" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="H105" s="43" t="s">
+      <c r="H105" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I105" s="43" t="s">
+      <c r="I105" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="J105" s="43" t="s">
+      <c r="J105" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="K105" s="43" t="s">
+      <c r="K105" s="51" t="s">
         <v>80</v>
       </c>
       <c r="L105" s="6" t="s">
@@ -5510,40 +5519,40 @@
       <c r="N105" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O105" s="35">
+      <c r="O105" s="36">
         <f t="shared" ref="O105" si="119">ROUND(($K105*0.5)+((($N105+$N106)/2)*0.5),4)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="P105" s="35">
+      <c r="P105" s="36">
         <f t="shared" ref="P105" si="120">ROUND(($K105*0.6)+((($N105+$N106)/2)*0.4),4)</f>
         <v>0.91800000000000004</v>
       </c>
-      <c r="Q105" s="35">
+      <c r="Q105" s="36">
         <f t="shared" ref="Q105" si="121">ROUND(($K105*0.7)+((($N105+$N106)/2)*0.3),4)</f>
         <v>0.91849999999999998</v>
       </c>
-      <c r="R105" s="35">
+      <c r="R105" s="36">
         <f t="shared" ref="R105" si="122">ROUND(($K105*0.8)+((($N105+$N106)/2)*0.2),4)</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="S105" s="35">
+      <c r="S105" s="36">
         <f t="shared" ref="S105" si="123">ROUND(($K105*0.9)+((($N105+$N106)/2)*0.1),4)</f>
         <v>0.91949999999999998</v>
       </c>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B106" s="56"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="42"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="44"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
       <c r="L106" s="6" t="s">
         <v>55</v>
       </c>
@@ -5553,39 +5562,39 @@
       <c r="N106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="37"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B107" s="56"/>
-      <c r="C107" s="45" t="s">
+      <c r="B107" s="45"/>
+      <c r="C107" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="53">
         <v>30</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="47" t="s">
+      <c r="G107" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H107" s="47" t="s">
+      <c r="H107" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="I107" s="37">
+      <c r="I107" s="33">
         <v>0.47739999999999999</v>
       </c>
-      <c r="J107" s="47" t="s">
+      <c r="J107" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="K107" s="37">
+      <c r="K107" s="33">
         <v>0.92</v>
       </c>
       <c r="L107" s="15" t="s">
@@ -5597,40 +5606,40 @@
       <c r="N107" s="12">
         <v>0.92</v>
       </c>
-      <c r="O107" s="37">
+      <c r="O107" s="33">
         <f t="shared" ref="O107" si="124">ROUND(($K107*0.5)+((($N107+$N108)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P107" s="37">
+      <c r="P107" s="33">
         <f t="shared" ref="P107" si="125">ROUND(($K107*0.6)+((($N107+$N108)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q107" s="37">
+      <c r="Q107" s="33">
         <f t="shared" ref="Q107" si="126">ROUND(($K107*0.7)+((($N107+$N108)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R107" s="37">
+      <c r="R107" s="33">
         <f t="shared" ref="R107" si="127">ROUND(($K107*0.8)+((($N107+$N108)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S107" s="37">
+      <c r="S107" s="33">
         <f t="shared" ref="S107" si="128">ROUND(($K107*0.9)+((($N107+$N108)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="45"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="38"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="34"/>
       <c r="L108" s="13" t="s">
         <v>71</v>
       </c>
@@ -5640,14 +5649,578 @@
       <c r="N108" s="12">
         <v>0.92</v>
       </c>
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
-      <c r="Q108" s="38"/>
-      <c r="R108" s="38"/>
-      <c r="S108" s="38"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34"/>
+      <c r="S108" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="588">
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="B24:S24"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B50:S50"/>
+    <mergeCell ref="B61:S61"/>
+    <mergeCell ref="B76:S76"/>
+    <mergeCell ref="B87:S87"/>
+    <mergeCell ref="B98:S98"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="O88:O89"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="P88:P89"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="S99:S100"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="S81:S82"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="S105:S106"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="S85:S86"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="S90:S91"/>
     <mergeCell ref="P107:P108"/>
     <mergeCell ref="Q107:Q108"/>
     <mergeCell ref="R107:R108"/>
@@ -5672,570 +6245,6 @@
     <mergeCell ref="Q92:Q93"/>
     <mergeCell ref="R92:R93"/>
     <mergeCell ref="S92:S93"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="S105:S106"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="S85:S86"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="R90:R91"/>
-    <mergeCell ref="S90:S91"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="S81:S82"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="P88:P89"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="S99:S100"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="B24:S24"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B50:S50"/>
-    <mergeCell ref="B61:S61"/>
-    <mergeCell ref="B76:S76"/>
-    <mergeCell ref="B87:S87"/>
-    <mergeCell ref="B98:S98"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O25:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6249,7 +6258,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,57 +6277,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="39" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="27" t="s">
         <v>1</v>
       </c>
@@ -6343,41 +6352,41 @@
       <c r="N3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="62">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="61">
         <v>10</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="65">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="65">
         <v>0.26950000000000002</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="65">
         <v>0.90249999999999997</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="65" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="25">
@@ -6389,40 +6398,40 @@
       <c r="N4" s="25">
         <v>0.91</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="63">
         <f>ROUND(($K4*0.5)+((($N4+$N5)/2)*0.5),2)</f>
         <v>0.9</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="63">
         <f>ROUND(($K4*0.6)+((($N4+$N5)/2)*0.4),2)</f>
         <v>0.9</v>
       </c>
-      <c r="Q4" s="72">
+      <c r="Q4" s="63">
         <f>ROUND(($K4*0.7)+((($N4+$N5)/2)*0.3),2)</f>
         <v>0.9</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="63">
         <f>ROUND(($K4*0.8)+((($N4+$N5)/2)*0.2),2)</f>
         <v>0.9</v>
       </c>
-      <c r="S4" s="72">
+      <c r="S4" s="63">
         <f>ROUND(($K4*0.9)+((($N4+$N5)/2)*0.1),2)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="76"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
       <c r="L5" s="25">
         <v>0.94</v>
       </c>
@@ -6432,41 +6441,41 @@
       <c r="N5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="62">
         <v>1E-4</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="61">
         <v>10</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="65" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="25" t="s">
@@ -6478,40 +6487,40 @@
       <c r="N6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="63">
         <f t="shared" ref="O6" si="0">ROUND(($K6*0.5)+((($N6+$N7)/2)*0.5),2)</f>
         <v>0.87</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="63">
         <f t="shared" ref="P6" si="1">ROUND(($K6*0.6)+((($N6+$N7)/2)*0.4),2)</f>
         <v>0.87</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="63">
         <f t="shared" ref="Q6" si="2">ROUND(($K6*0.7)+((($N6+$N7)/2)*0.3),2)</f>
         <v>0.87</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="63">
         <f t="shared" ref="R6" si="3">ROUND(($K6*0.8)+((($N6+$N7)/2)*0.2),2)</f>
         <v>0.87</v>
       </c>
-      <c r="S6" s="72">
+      <c r="S6" s="63">
         <f t="shared" ref="S6" si="4">ROUND(($K6*0.9)+((($N6+$N7)/2)*0.1),2)</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="25" t="s">
         <v>55</v>
       </c>
@@ -6521,41 +6530,41 @@
       <c r="N7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="61">
         <v>10</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="63">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="63">
         <v>0.99809999999999999</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="63">
         <v>0.44340000000000002</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="63">
         <v>0.93</v>
       </c>
       <c r="L8" s="24">
@@ -6567,40 +6576,40 @@
       <c r="N8" s="24">
         <v>0.93</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="63">
         <f t="shared" ref="O8" si="5">ROUND(($K8*0.5)+((($N8+$N9)/2)*0.5),2)</f>
         <v>0.93</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="63">
         <f t="shared" ref="P8" si="6">ROUND(($K8*0.6)+((($N8+$N9)/2)*0.4),2)</f>
         <v>0.93</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="63">
         <f t="shared" ref="Q8" si="7">ROUND(($K8*0.7)+((($N8+$N9)/2)*0.3),2)</f>
         <v>0.93</v>
       </c>
-      <c r="R8" s="72">
+      <c r="R8" s="63">
         <f t="shared" ref="R8" si="8">ROUND(($K8*0.8)+((($N8+$N9)/2)*0.2),2)</f>
         <v>0.93</v>
       </c>
-      <c r="S8" s="72">
+      <c r="S8" s="63">
         <f t="shared" ref="S8" si="9">ROUND(($K8*0.9)+((($N8+$N9)/2)*0.1),2)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="73"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="25" t="s">
         <v>71</v>
       </c>
@@ -6610,41 +6619,41 @@
       <c r="N9" s="24">
         <v>0.93</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="70">
         <v>1E-4</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="69">
         <v>20</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="71" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="21" t="s">
@@ -6656,40 +6665,40 @@
       <c r="N10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="67">
         <f t="shared" ref="O10" si="10">ROUND(($K10*0.5)+((($N10+$N11)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P10" s="66">
+      <c r="P10" s="67">
         <f t="shared" ref="P10" si="11">ROUND(($K10*0.6)+((($N10+$N11)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="Q10" s="67">
         <f t="shared" ref="Q10" si="12">ROUND(($K10*0.7)+((($N10+$N11)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R10" s="66">
+      <c r="R10" s="67">
         <f t="shared" ref="R10" si="13">ROUND(($K10*0.8)+((($N10+$N11)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S10" s="66">
+      <c r="S10" s="67">
         <f t="shared" ref="S10" si="14">ROUND(($K10*0.9)+((($N10+$N11)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="21" t="s">
         <v>71</v>
       </c>
@@ -6699,41 +6708,41 @@
       <c r="N11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <v>1E-4</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="69">
         <v>20</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L12" s="21" t="s">
@@ -6745,40 +6754,40 @@
       <c r="N12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="66">
+      <c r="O12" s="67">
         <f t="shared" ref="O12" si="15">ROUND(($K12*0.5)+((($N12+$N13)/2)*0.5),2)</f>
         <v>0.94</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="67">
         <f t="shared" ref="P12" si="16">ROUND(($K12*0.6)+((($N12+$N13)/2)*0.4),2)</f>
         <v>0.94</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="Q12" s="67">
         <f t="shared" ref="Q12" si="17">ROUND(($K12*0.7)+((($N12+$N13)/2)*0.3),2)</f>
         <v>0.94</v>
       </c>
-      <c r="R12" s="66">
+      <c r="R12" s="67">
         <f t="shared" ref="R12" si="18">ROUND(($K12*0.8)+((($N12+$N13)/2)*0.2),2)</f>
         <v>0.94</v>
       </c>
-      <c r="S12" s="66">
+      <c r="S12" s="67">
         <f t="shared" ref="S12" si="19">ROUND(($K12*0.9)+((($N12+$N13)/2)*0.1),2)</f>
         <v>0.94</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="21" t="s">
         <v>71</v>
       </c>
@@ -6788,41 +6797,41 @@
       <c r="N13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="69">
         <v>20</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="71">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="67">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="67">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="67">
         <v>0.92</v>
       </c>
       <c r="L14" s="23" t="s">
@@ -6834,40 +6843,40 @@
       <c r="N14" s="20">
         <v>0.92</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="67">
         <f t="shared" ref="O14" si="20">ROUND(($K14*0.5)+((($N14+$N15)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P14" s="66">
+      <c r="P14" s="67">
         <f t="shared" ref="P14" si="21">ROUND(($K14*0.6)+((($N14+$N15)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q14" s="66">
+      <c r="Q14" s="67">
         <f t="shared" ref="Q14" si="22">ROUND(($K14*0.7)+((($N14+$N15)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R14" s="66">
+      <c r="R14" s="67">
         <f t="shared" ref="R14" si="23">ROUND(($K14*0.8)+((($N14+$N15)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S14" s="66">
+      <c r="S14" s="67">
         <f t="shared" ref="S14" si="24">ROUND(($K14*0.9)+((($N14+$N15)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="67"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="21" t="s">
         <v>71</v>
       </c>
@@ -6877,41 +6886,41 @@
       <c r="N15" s="20">
         <v>0.92</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="76">
         <v>1E-4</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="75">
         <v>30</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="77" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="17" t="s">
@@ -6923,40 +6932,40 @@
       <c r="N16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="73">
         <f t="shared" ref="O16" si="25">ROUND(($K16*0.5)+((($N16+$N17)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="73">
         <f t="shared" ref="P16" si="26">ROUND(($K16*0.6)+((($N16+$N17)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q16" s="61">
+      <c r="Q16" s="73">
         <f t="shared" ref="Q16" si="27">ROUND(($K16*0.7)+((($N16+$N17)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="73">
         <f t="shared" ref="R16" si="28">ROUND(($K16*0.8)+((($N16+$N17)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S16" s="61">
+      <c r="S16" s="73">
         <f t="shared" ref="S16" si="29">ROUND(($K16*0.9)+((($N16+$N17)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="60"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="17" t="s">
         <v>71</v>
       </c>
@@ -6966,41 +6975,41 @@
       <c r="N17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="76">
         <v>1E-4</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="75">
         <v>30</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="77" t="s">
         <v>82</v>
       </c>
       <c r="L18" s="17" t="s">
@@ -7012,40 +7021,40 @@
       <c r="N18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18" s="73">
         <f t="shared" ref="O18" si="30">ROUND(($K18*0.5)+((($N18+$N19)/2)*0.5),2)</f>
         <v>0.93</v>
       </c>
-      <c r="P18" s="61">
+      <c r="P18" s="73">
         <f t="shared" ref="P18" si="31">ROUND(($K18*0.6)+((($N18+$N19)/2)*0.4),2)</f>
         <v>0.93</v>
       </c>
-      <c r="Q18" s="61">
+      <c r="Q18" s="73">
         <f t="shared" ref="Q18" si="32">ROUND(($K18*0.7)+((($N18+$N19)/2)*0.3),2)</f>
         <v>0.93</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18" s="73">
         <f t="shared" ref="R18" si="33">ROUND(($K18*0.8)+((($N18+$N19)/2)*0.2),2)</f>
         <v>0.93</v>
       </c>
-      <c r="S18" s="61">
+      <c r="S18" s="73">
         <f t="shared" ref="S18" si="34">ROUND(($K18*0.9)+((($N18+$N19)/2)*0.1),2)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="60"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="17" t="s">
         <v>71</v>
       </c>
@@ -7055,41 +7064,41 @@
       <c r="N19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="75">
         <v>30</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="73">
         <v>0.47739999999999999</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="73">
         <v>0.92</v>
       </c>
       <c r="L20" s="19" t="s">
@@ -7101,40 +7110,40 @@
       <c r="N20" s="16">
         <v>0.92</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="73">
         <f t="shared" ref="O20" si="35">ROUND(($K20*0.5)+((($N20+$N21)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="73">
         <f t="shared" ref="P20" si="36">ROUND(($K20*0.6)+((($N20+$N21)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="Q20" s="73">
         <f t="shared" ref="Q20" si="37">ROUND(($K20*0.7)+((($N20+$N21)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20" s="73">
         <f t="shared" ref="R20" si="38">ROUND(($K20*0.8)+((($N20+$N21)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S20" s="61">
+      <c r="S20" s="73">
         <f t="shared" ref="S20" si="39">ROUND(($K20*0.9)+((($N20+$N21)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="60"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="62"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="17" t="s">
         <v>71</v>
       </c>
@@ -7144,85 +7153,56 @@
       <c r="N21" s="16">
         <v>0.92</v>
       </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="B10:B11"/>
@@ -7247,48 +7227,77 @@
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7302,51 +7311,51 @@
   <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="14.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="39" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
@@ -7365,20 +7374,20 @@
       <c r="I3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="75">
         <v>10</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="75">
         <v>0.92</v>
       </c>
       <c r="E4" s="30" t="s">
@@ -7390,37 +7399,37 @@
       <c r="G4" s="16">
         <v>0.92</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="73">
         <v>0.96042000000000005</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="73">
         <v>0.95465</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="36">
         <f>ROUND(($D4*0.25)+((($G4+$G5)/2)*0.25)+($H4*0.25)+($I4*0.25),4)</f>
         <v>0.93879999999999997</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="36">
         <f>ROUND(($D4*0.4)+((($G4+$G5)/2)*0.2)+($H4*0.2)+($I4*0.2),4)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="36">
         <f>ROUND(($D4*0.55)+((($G4+$G5)/2)*0.15)+($H4*0.15)+($I4*0.15),4)</f>
         <v>0.93130000000000002</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="36">
         <f>ROUND(($D4*0.7)+((($G4+$G5)/2)*0.1)+($H4*0.1)+($I4*0.1),4)</f>
         <v>0.92749999999999999</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="36">
         <f>ROUND(($D4*0.85)+((($G4+$G5)/2)*0.05)+($H4*0.05)+($I4*0.05),4)</f>
         <v>0.92379999999999995</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="16">
         <v>0.94</v>
       </c>
@@ -7430,20 +7439,20 @@
       <c r="G5" s="16">
         <v>0.92</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75">
         <v>0.92</v>
       </c>
       <c r="E6" s="16">
@@ -7455,37 +7464,37 @@
       <c r="G6" s="16">
         <v>0.91</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="73">
         <v>0.96357000000000004</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="73">
         <v>0.95714999999999995</v>
       </c>
-      <c r="J6" s="35">
-        <f t="shared" ref="J6:J15" si="0">ROUND(($D6*0.25)+((($G6+$G7)/2)*0.25)+($H6*0.25)+($I6*0.25),4)</f>
+      <c r="J6" s="36">
+        <f t="shared" ref="J6" si="0">ROUND(($D6*0.25)+((($G6+$G7)/2)*0.25)+($H6*0.25)+($I6*0.25),4)</f>
         <v>0.93889999999999996</v>
       </c>
-      <c r="K6" s="35">
-        <f t="shared" ref="K6:K15" si="1">ROUND(($D6*0.4)+((($G6+$G7)/2)*0.2)+($H6*0.2)+($I6*0.2),4)</f>
+      <c r="K6" s="36">
+        <f t="shared" ref="K6" si="1">ROUND(($D6*0.4)+((($G6+$G7)/2)*0.2)+($H6*0.2)+($I6*0.2),4)</f>
         <v>0.93510000000000004</v>
       </c>
-      <c r="L6" s="35">
-        <f t="shared" ref="L6:L15" si="2">ROUND(($D6*0.55)+((($G6+$G7)/2)*0.15)+($H6*0.15)+($I6*0.15),4)</f>
+      <c r="L6" s="36">
+        <f t="shared" ref="L6" si="2">ROUND(($D6*0.55)+((($G6+$G7)/2)*0.15)+($H6*0.15)+($I6*0.15),4)</f>
         <v>0.93140000000000001</v>
       </c>
-      <c r="M6" s="35">
-        <f t="shared" ref="M6:M15" si="3">ROUND(($D6*0.7)+((($G6+$G7)/2)*0.1)+($H6*0.1)+($I6*0.1),4)</f>
+      <c r="M6" s="36">
+        <f t="shared" ref="M6" si="3">ROUND(($D6*0.7)+((($G6+$G7)/2)*0.1)+($H6*0.1)+($I6*0.1),4)</f>
         <v>0.92759999999999998</v>
       </c>
-      <c r="N6" s="35">
-        <f t="shared" ref="N6:N15" si="4">ROUND(($D6*0.85)+((($G6+$G7)/2)*0.05)+($H6*0.05)+($I6*0.05),4)</f>
+      <c r="N6" s="36">
+        <f t="shared" ref="N6" si="4">ROUND(($D6*0.85)+((($G6+$G7)/2)*0.05)+($H6*0.05)+($I6*0.05),4)</f>
         <v>0.92379999999999995</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="16">
         <v>0.95</v>
       </c>
@@ -7495,22 +7504,22 @@
       <c r="G7" s="16">
         <v>0.92</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="69">
         <v>20</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="69">
         <v>0.92</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -7522,37 +7531,37 @@
       <c r="G8" s="20">
         <v>0.92</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="67">
         <v>0.96233999999999997</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="67">
         <v>0.95657999999999999</v>
       </c>
-      <c r="J8" s="35">
-        <f t="shared" ref="J8:J15" si="5">ROUND(($D8*0.25)+((($G8+$G9)/2)*0.25)+($H8*0.25)+($I8*0.25),4)</f>
+      <c r="J8" s="36">
+        <f t="shared" ref="J8" si="5">ROUND(($D8*0.25)+((($G8+$G9)/2)*0.25)+($H8*0.25)+($I8*0.25),4)</f>
         <v>0.93969999999999998</v>
       </c>
-      <c r="K8" s="35">
-        <f t="shared" ref="K8:K15" si="6">ROUND(($D8*0.4)+((($G8+$G9)/2)*0.2)+($H8*0.2)+($I8*0.2),4)</f>
+      <c r="K8" s="36">
+        <f t="shared" ref="K8" si="6">ROUND(($D8*0.4)+((($G8+$G9)/2)*0.2)+($H8*0.2)+($I8*0.2),4)</f>
         <v>0.93579999999999997</v>
       </c>
-      <c r="L8" s="35">
-        <f t="shared" ref="L8:L15" si="7">ROUND(($D8*0.55)+((($G8+$G9)/2)*0.15)+($H8*0.15)+($I8*0.15),4)</f>
+      <c r="L8" s="36">
+        <f t="shared" ref="L8" si="7">ROUND(($D8*0.55)+((($G8+$G9)/2)*0.15)+($H8*0.15)+($I8*0.15),4)</f>
         <v>0.93179999999999996</v>
       </c>
-      <c r="M8" s="35">
-        <f t="shared" ref="M8:M15" si="8">ROUND(($D8*0.7)+((($G8+$G9)/2)*0.1)+($H8*0.1)+($I8*0.1),4)</f>
+      <c r="M8" s="36">
+        <f t="shared" ref="M8" si="8">ROUND(($D8*0.7)+((($G8+$G9)/2)*0.1)+($H8*0.1)+($I8*0.1),4)</f>
         <v>0.92789999999999995</v>
       </c>
-      <c r="N8" s="35">
-        <f t="shared" ref="N8:N15" si="9">ROUND(($D8*0.85)+((($G8+$G9)/2)*0.05)+($H8*0.05)+($I8*0.05),4)</f>
+      <c r="N8" s="36">
+        <f t="shared" ref="N8" si="9">ROUND(($D8*0.85)+((($G8+$G9)/2)*0.05)+($H8*0.05)+($I8*0.05),4)</f>
         <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="20">
         <v>0.94</v>
       </c>
@@ -7562,20 +7571,20 @@
       <c r="G9" s="20">
         <v>0.92</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69">
         <v>0.92</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -7587,37 +7596,37 @@
       <c r="G10" s="20">
         <v>0.92</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="67">
         <v>0.96423999999999999</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="67">
         <v>0.95799000000000001</v>
       </c>
-      <c r="J10" s="35">
-        <f t="shared" ref="J10:J15" si="10">ROUND(($D10*0.25)+((($G10+$G11)/2)*0.25)+($H10*0.25)+($I10*0.25),4)</f>
+      <c r="J10" s="36">
+        <f t="shared" ref="J10" si="10">ROUND(($D10*0.25)+((($G10+$G11)/2)*0.25)+($H10*0.25)+($I10*0.25),4)</f>
         <v>0.93930000000000002</v>
       </c>
-      <c r="K10" s="35">
-        <f t="shared" ref="K10:K15" si="11">ROUND(($D10*0.4)+((($G10+$G11)/2)*0.2)+($H10*0.2)+($I10*0.2),4)</f>
+      <c r="K10" s="36">
+        <f t="shared" ref="K10" si="11">ROUND(($D10*0.4)+((($G10+$G11)/2)*0.2)+($H10*0.2)+($I10*0.2),4)</f>
         <v>0.93540000000000001</v>
       </c>
-      <c r="L10" s="35">
-        <f t="shared" ref="L10:L15" si="12">ROUND(($D10*0.55)+((($G10+$G11)/2)*0.15)+($H10*0.15)+($I10*0.15),4)</f>
+      <c r="L10" s="36">
+        <f t="shared" ref="L10" si="12">ROUND(($D10*0.55)+((($G10+$G11)/2)*0.15)+($H10*0.15)+($I10*0.15),4)</f>
         <v>0.93159999999999998</v>
       </c>
-      <c r="M10" s="35">
-        <f t="shared" ref="M10:M15" si="13">ROUND(($D10*0.7)+((($G10+$G11)/2)*0.1)+($H10*0.1)+($I10*0.1),4)</f>
+      <c r="M10" s="36">
+        <f t="shared" ref="M10" si="13">ROUND(($D10*0.7)+((($G10+$G11)/2)*0.1)+($H10*0.1)+($I10*0.1),4)</f>
         <v>0.92769999999999997</v>
       </c>
-      <c r="N10" s="35">
-        <f t="shared" ref="N10:N15" si="14">ROUND(($D10*0.85)+((($G10+$G11)/2)*0.05)+($H10*0.05)+($I10*0.05),4)</f>
+      <c r="N10" s="36">
+        <f t="shared" ref="N10" si="14">ROUND(($D10*0.85)+((($G10+$G11)/2)*0.05)+($H10*0.05)+($I10*0.05),4)</f>
         <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="20">
         <v>0.94</v>
       </c>
@@ -7627,22 +7636,22 @@
       <c r="G11" s="20">
         <v>0.91</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="82">
         <v>30</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="82">
         <v>0.92</v>
       </c>
       <c r="E12" s="32" t="s">
@@ -7654,37 +7663,37 @@
       <c r="G12" s="29">
         <v>0.92</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="79">
         <v>0.96577000000000002</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="79">
         <v>0.95491999999999999</v>
       </c>
-      <c r="J12" s="35">
-        <f t="shared" ref="J12:J15" si="15">ROUND(($D12*0.25)+((($G12+$G13)/2)*0.25)+($H12*0.25)+($I12*0.25),4)</f>
+      <c r="J12" s="36">
+        <f t="shared" ref="J12" si="15">ROUND(($D12*0.25)+((($G12+$G13)/2)*0.25)+($H12*0.25)+($I12*0.25),4)</f>
         <v>0.94020000000000004</v>
       </c>
-      <c r="K12" s="35">
-        <f t="shared" ref="K12:K15" si="16">ROUND(($D12*0.4)+((($G12+$G13)/2)*0.2)+($H12*0.2)+($I12*0.2),4)</f>
+      <c r="K12" s="36">
+        <f t="shared" ref="K12" si="16">ROUND(($D12*0.4)+((($G12+$G13)/2)*0.2)+($H12*0.2)+($I12*0.2),4)</f>
         <v>0.93610000000000004</v>
       </c>
-      <c r="L12" s="35">
-        <f t="shared" ref="L12:L15" si="17">ROUND(($D12*0.55)+((($G12+$G13)/2)*0.15)+($H12*0.15)+($I12*0.15),4)</f>
+      <c r="L12" s="36">
+        <f t="shared" ref="L12" si="17">ROUND(($D12*0.55)+((($G12+$G13)/2)*0.15)+($H12*0.15)+($I12*0.15),4)</f>
         <v>0.93210000000000004</v>
       </c>
-      <c r="M12" s="35">
-        <f t="shared" ref="M12:M15" si="18">ROUND(($D12*0.7)+((($G12+$G13)/2)*0.1)+($H12*0.1)+($I12*0.1),4)</f>
+      <c r="M12" s="36">
+        <f t="shared" ref="M12" si="18">ROUND(($D12*0.7)+((($G12+$G13)/2)*0.1)+($H12*0.1)+($I12*0.1),4)</f>
         <v>0.92810000000000004</v>
       </c>
-      <c r="N12" s="35">
-        <f t="shared" ref="N12:N15" si="19">ROUND(($D12*0.85)+((($G12+$G13)/2)*0.05)+($H12*0.05)+($I12*0.05),4)</f>
+      <c r="N12" s="36">
+        <f t="shared" ref="N12" si="19">ROUND(($D12*0.85)+((($G12+$G13)/2)*0.05)+($H12*0.05)+($I12*0.05),4)</f>
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="29">
         <v>0.94</v>
       </c>
@@ -7694,20 +7703,20 @@
       <c r="G13" s="29">
         <v>0.92</v>
       </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82">
         <v>0.92</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -7719,37 +7728,37 @@
       <c r="G14" s="29">
         <v>0.92</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H14" s="79">
         <v>0.96869000000000005</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="79">
         <v>0.96292999999999995</v>
       </c>
-      <c r="J14" s="37">
-        <f t="shared" ref="J14:J15" si="20">ROUND(($D14*0.25)+((($G14+$G15)/2)*0.25)+($H14*0.25)+($I14*0.25),4)</f>
+      <c r="J14" s="33">
+        <f t="shared" ref="J14" si="20">ROUND(($D14*0.25)+((($G14+$G15)/2)*0.25)+($H14*0.25)+($I14*0.25),4)</f>
         <v>0.94289999999999996</v>
       </c>
-      <c r="K14" s="37">
-        <f t="shared" ref="K14:K15" si="21">ROUND(($D14*0.4)+((($G14+$G15)/2)*0.2)+($H14*0.2)+($I14*0.2),4)</f>
+      <c r="K14" s="33">
+        <f t="shared" ref="K14" si="21">ROUND(($D14*0.4)+((($G14+$G15)/2)*0.2)+($H14*0.2)+($I14*0.2),4)</f>
         <v>0.93830000000000002</v>
       </c>
-      <c r="L14" s="37">
-        <f t="shared" ref="L14:L15" si="22">ROUND(($D14*0.55)+((($G14+$G15)/2)*0.15)+($H14*0.15)+($I14*0.15),4)</f>
+      <c r="L14" s="33">
+        <f t="shared" ref="L14" si="22">ROUND(($D14*0.55)+((($G14+$G15)/2)*0.15)+($H14*0.15)+($I14*0.15),4)</f>
         <v>0.93369999999999997</v>
       </c>
-      <c r="M14" s="37">
-        <f t="shared" ref="M14:M15" si="23">ROUND(($D14*0.7)+((($G14+$G15)/2)*0.1)+($H14*0.1)+($I14*0.1),4)</f>
+      <c r="M14" s="33">
+        <f t="shared" ref="M14" si="23">ROUND(($D14*0.7)+((($G14+$G15)/2)*0.1)+($H14*0.1)+($I14*0.1),4)</f>
         <v>0.92920000000000003</v>
       </c>
-      <c r="N14" s="37">
-        <f t="shared" ref="N14:N15" si="24">ROUND(($D14*0.85)+((($G14+$G15)/2)*0.05)+($H14*0.05)+($I14*0.05),4)</f>
+      <c r="N14" s="33">
+        <f t="shared" ref="N14" si="24">ROUND(($D14*0.85)+((($G14+$G15)/2)*0.05)+($H14*0.05)+($I14*0.05),4)</f>
         <v>0.92459999999999998</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="29">
         <v>0.94</v>
       </c>
@@ -7759,16 +7768,69 @@
       <c r="G15" s="29">
         <v>0.92</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I12:I13"/>
@@ -7781,59 +7843,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/.preprocessing/Data Hasil TA.xlsx
+++ b/.preprocessing/Data Hasil TA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.Programming\.UploadGithub\ml-ui-heartdisease\.preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F034D2-7E9A-4C07-AF9C-BB064BC77915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D0F68-B8AA-4D09-B430-BE9023CDC644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hasil_training_base_learner" sheetId="2" r:id="rId1"/>
     <sheet name="hasil_training_base_selected" sheetId="3" r:id="rId2"/>
-    <sheet name="ensemble_learning" sheetId="4" r:id="rId3"/>
+    <sheet name="ensemble_learning (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="ensemble_learning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="156">
   <si>
     <t>Epoch</t>
   </si>
@@ -765,12 +766,32 @@
   <si>
     <t>Prs-Rcl AUC</t>
   </si>
+  <si>
+    <t>Persentase
+(50%, 25%, 25%)</t>
+  </si>
+  <si>
+    <t>Persentase
+(60%, 20%, 20%)</t>
+  </si>
+  <si>
+    <t>Persentase
+(70%, 15%, 15%)</t>
+  </si>
+  <si>
+    <t>Persentase
+(80%, 10%, 10%)</t>
+  </si>
+  <si>
+    <t>Persentase
+(90%, 5%, 5%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +816,21 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -961,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1059,144 +1095,144 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,6 +1243,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C667F-70EC-4D43-80AA-0C0F273AA513}">
   <dimension ref="B1:S108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,99 +1564,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="38" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="56"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1639,41 +1681,41 @@
       <c r="N4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="41">
         <v>0.01</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="42">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="51">
         <v>0.39100000000000001</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="51">
         <v>0.81810000000000005</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="51">
         <v>0.4587</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -1685,40 +1727,40 @@
       <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <f>ROUND(($K5*0.5)+((($N5+$N6)/2)*0.5),4)</f>
         <v>0.77749999999999997</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <f>ROUND(($K5*0.6)+((($N5+$N6)/2)*0.4),4)</f>
         <v>0.77800000000000002</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <f>ROUND(($K5*0.7)+((($N5+$N6)/2)*0.3),4)</f>
         <v>0.77849999999999997</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="35">
         <f>ROUND(($K5*0.8)+((($N5+$N6)/2)*0.2),4)</f>
         <v>0.77900000000000003</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="35">
         <f>ROUND(($K5*0.9)+((($N5+$N6)/2)*0.1),4)</f>
         <v>0.77949999999999997</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1728,39 +1770,39 @@
       <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>0.39810000000000001</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="51" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1772,40 +1814,40 @@
       <c r="N7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <f t="shared" ref="O7" si="0">ROUND(($K7*0.5)+((($N7+$N8)/2)*0.5),4)</f>
         <v>0.82750000000000001</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <f t="shared" ref="P7" si="1">ROUND(($K7*0.6)+((($N7+$N8)/2)*0.4),4)</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <f t="shared" ref="Q7" si="2">ROUND(($K7*0.7)+((($N7+$N8)/2)*0.3),4)</f>
         <v>0.82850000000000001</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="35">
         <f t="shared" ref="R7" si="3">ROUND(($K7*0.8)+((($N7+$N8)/2)*0.2),4)</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="35">
         <f t="shared" ref="S7" si="4">ROUND(($K7*0.9)+((($N7+$N8)/2)*0.1),4)</f>
         <v>0.82950000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1815,39 +1857,39 @@
       <c r="N8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="45">
         <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="47">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="47">
         <v>0.26950000000000002</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="47">
         <v>0.90249999999999997</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="47" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="13">
@@ -1859,40 +1901,40 @@
       <c r="N9" s="13">
         <v>0.91</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="37">
         <f t="shared" ref="O9" si="5">ROUND(($K9*0.5)+((($N9+$N10)/2)*0.5),4)</f>
         <v>0.90249999999999997</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="37">
         <f t="shared" ref="P9" si="6">ROUND(($K9*0.6)+((($N9+$N10)/2)*0.4),4)</f>
         <v>0.90200000000000002</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="37">
         <f t="shared" ref="Q9" si="7">ROUND(($K9*0.7)+((($N9+$N10)/2)*0.3),4)</f>
         <v>0.90149999999999997</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="37">
         <f t="shared" ref="R9" si="8">ROUND(($K9*0.8)+((($N9+$N10)/2)*0.2),4)</f>
         <v>0.90100000000000002</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="37">
         <f t="shared" ref="S9" si="9">ROUND(($K9*0.9)+((($N9+$N10)/2)*0.1),4)</f>
         <v>0.90049999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="13">
         <v>0.94</v>
       </c>
@@ -1902,39 +1944,39 @@
       <c r="N10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>0.21440000000000001</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>0.33760000000000001</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>0.88</v>
       </c>
       <c r="L11" s="3">
@@ -1946,40 +1988,40 @@
       <c r="N11" s="3">
         <v>0.89</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <f t="shared" ref="O11" si="10">ROUND(($K11*0.5)+((($N11+$N12)/2)*0.5),4)</f>
         <v>0.88249999999999995</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <f t="shared" ref="P11" si="11">ROUND(($K11*0.6)+((($N11+$N12)/2)*0.4),4)</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <f t="shared" ref="Q11" si="12">ROUND(($K11*0.7)+((($N11+$N12)/2)*0.3),4)</f>
         <v>0.88149999999999995</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <f t="shared" ref="R11" si="13">ROUND(($K11*0.8)+((($N11+$N12)/2)*0.2),4)</f>
         <v>0.88100000000000001</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="35">
         <f t="shared" ref="S11" si="14">ROUND(($K11*0.9)+((($N11+$N12)/2)*0.1),4)</f>
         <v>0.88049999999999995</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1989,84 +2031,84 @@
       <c r="N12" s="3">
         <v>0.88</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
     </row>
     <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="56" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="38" t="s">
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="8" t="s">
         <v>1</v>
       </c>
@@ -2091,41 +2133,41 @@
       <c r="N15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="41">
         <v>0.01</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="42">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="51" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -2137,40 +2179,40 @@
       <c r="N16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <f t="shared" ref="O16" si="15">ROUND(($K16*0.5)+((($N16+$N17)/2)*0.5),4)</f>
         <v>0.81</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <f>ROUND(($K16*0.6)+((($N16+$N17)/2)*0.4),4)</f>
         <v>0.81</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <f>ROUND(($K16*0.7)+((($N16+$N17)/2)*0.3),4)</f>
         <v>0.81</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <f>ROUND(($K16*0.8)+((($N16+$N17)/2)*0.2),4)</f>
         <v>0.81</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="35">
         <f>ROUND(($K16*0.9)+((($N16+$N17)/2)*0.1),4)</f>
         <v>0.81</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="5" t="s">
         <v>31</v>
       </c>
@@ -2180,39 +2222,39 @@
       <c r="N17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="49" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="42">
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>0.41010000000000002</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="51" t="s">
         <v>49</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -2224,40 +2266,40 @@
       <c r="N18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="35">
         <f t="shared" ref="O18" si="16">ROUND(($K18*0.5)+((($N18+$N19)/2)*0.5),4)</f>
         <v>0.87</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <f t="shared" ref="P18" si="17">ROUND(($K18*0.6)+((($N18+$N19)/2)*0.4),4)</f>
         <v>0.87</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <f t="shared" ref="Q18" si="18">ROUND(($K18*0.7)+((($N18+$N19)/2)*0.3),4)</f>
         <v>0.87</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <f t="shared" ref="R18" si="19">ROUND(($K18*0.8)+((($N18+$N19)/2)*0.2),4)</f>
         <v>0.87</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="35">
         <f t="shared" ref="S18" si="20">ROUND(($K18*0.9)+((($N18+$N19)/2)*0.1),4)</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2267,39 +2309,39 @@
       <c r="N19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="45">
         <v>10</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="13" t="s">
@@ -2311,40 +2353,40 @@
       <c r="N20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="37">
         <f>ROUND(($K20*0.5)+((($N20+$N21)/2)*0.5),4)</f>
         <v>0.86750000000000005</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="37">
         <f t="shared" ref="P20" si="21">ROUND(($K20*0.6)+((($N20+$N21)/2)*0.4),4)</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="37">
         <f t="shared" ref="Q20" si="22">ROUND(($K20*0.7)+((($N20+$N21)/2)*0.3),4)</f>
         <v>0.86850000000000005</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="37">
         <f t="shared" ref="R20" si="23">ROUND(($K20*0.8)+((($N20+$N21)/2)*0.2),4)</f>
         <v>0.86899999999999999</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="37">
         <f t="shared" ref="S20" si="24">ROUND(($K20*0.9)+((($N20+$N21)/2)*0.1),4)</f>
         <v>0.86950000000000005</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="13" t="s">
         <v>55</v>
       </c>
@@ -2354,39 +2396,39 @@
       <c r="N21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="42">
         <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>0.2291</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>0.92190000000000005</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>0.35809999999999997</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <v>0.87</v>
       </c>
       <c r="L22" s="3">
@@ -2398,40 +2440,40 @@
       <c r="N22" s="3">
         <v>0.87</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="35">
         <f t="shared" ref="O22" si="25">ROUND(($K22*0.5)+((($N22+$N23)/2)*0.5),4)</f>
         <v>0.86750000000000005</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="35">
         <f t="shared" ref="P22" si="26">ROUND(($K22*0.6)+((($N22+$N23)/2)*0.4),4)</f>
         <v>0.86799999999999999</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <f t="shared" ref="Q22" si="27">ROUND(($K22*0.7)+((($N22+$N23)/2)*0.3),4)</f>
         <v>0.86850000000000005</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="35">
         <f t="shared" ref="R22" si="28">ROUND(($K22*0.8)+((($N22+$N23)/2)*0.2),4)</f>
         <v>0.86899999999999999</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="35">
         <f t="shared" ref="S22" si="29">ROUND(($K22*0.9)+((($N22+$N23)/2)*0.1),4)</f>
         <v>0.86950000000000005</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="6" t="s">
         <v>30</v>
       </c>
@@ -2441,84 +2483,84 @@
       <c r="N23" s="3">
         <v>0.86</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
     </row>
     <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="56" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="38" t="s">
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R25" s="38" t="s">
+      <c r="R25" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="8" t="s">
         <v>1</v>
       </c>
@@ -2543,41 +2585,41 @@
       <c r="N26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="41">
         <v>0.01</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="42">
         <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="51" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -2589,40 +2631,40 @@
       <c r="N27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="35">
         <f>ROUND(($K27*0.5)+((($N27+$N28)/2)*0.5),4)</f>
         <v>0.89</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="35">
         <f>ROUND(($K27*0.6)+((($N27+$N28)/2)*0.4),4)</f>
         <v>0.89</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="35">
         <f>ROUND(($K27*0.7)+((($N27+$N28)/2)*0.3),4)</f>
         <v>0.89</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="35">
         <f>ROUND(($K27*0.8)+((($N27+$N28)/2)*0.2),4)</f>
         <v>0.89</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="35">
         <f>ROUND(($K27*0.9)+((($N27+$N28)/2)*0.1),4)</f>
         <v>0.89</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="5" t="s">
         <v>34</v>
       </c>
@@ -2632,39 +2674,39 @@
       <c r="N28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="49" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="42">
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <v>0.51280000000000003</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="51" t="s">
         <v>34</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -2676,40 +2718,40 @@
       <c r="N29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="35">
         <f t="shared" ref="O29" si="30">ROUND(($K29*0.5)+((($N29+$N30)/2)*0.5),4)</f>
         <v>0.9</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="35">
         <f t="shared" ref="P29" si="31">ROUND(($K29*0.6)+((($N29+$N30)/2)*0.4),4)</f>
         <v>0.9</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="35">
         <f t="shared" ref="Q29" si="32">ROUND(($K29*0.7)+((($N29+$N30)/2)*0.3),4)</f>
         <v>0.9</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="35">
         <f t="shared" ref="R29" si="33">ROUND(($K29*0.8)+((($N29+$N30)/2)*0.2),4)</f>
         <v>0.9</v>
       </c>
-      <c r="S29" s="36">
+      <c r="S29" s="35">
         <f t="shared" ref="S29" si="34">ROUND(($K29*0.9)+((($N29+$N30)/2)*0.1),4)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
@@ -2719,39 +2761,39 @@
       <c r="N30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="49" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="41">
         <v>1E-4</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="42">
         <v>10</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="51" t="s">
+      <c r="J31" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="43" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="6" t="s">
@@ -2763,40 +2805,40 @@
       <c r="N31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="35">
         <f t="shared" ref="O31" si="35">ROUND(($K31*0.5)+((($N31+$N32)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="35">
         <f t="shared" ref="P31" si="36">ROUND(($K31*0.6)+((($N31+$N32)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="35">
         <f t="shared" ref="Q31" si="37">ROUND(($K31*0.7)+((($N31+$N32)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="35">
         <f t="shared" ref="R31" si="38">ROUND(($K31*0.8)+((($N31+$N32)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="35">
         <f t="shared" ref="S31" si="39">ROUND(($K31*0.9)+((($N31+$N32)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="6" t="s">
         <v>55</v>
       </c>
@@ -2806,39 +2848,39 @@
       <c r="N32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="56"/>
+      <c r="C33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="45">
         <v>10</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="37">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="37">
         <v>0.99809999999999999</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="37">
         <v>0.44340000000000002</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="37">
         <v>0.93</v>
       </c>
       <c r="L33" s="12">
@@ -2850,40 +2892,40 @@
       <c r="N33" s="12">
         <v>0.93</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="37">
         <f t="shared" ref="O33" si="40">ROUND(($K33*0.5)+((($N33+$N34)/2)*0.5),4)</f>
         <v>0.93</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="37">
         <f t="shared" ref="P33" si="41">ROUND(($K33*0.6)+((($N33+$N34)/2)*0.4),4)</f>
         <v>0.93</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="37">
         <f t="shared" ref="Q33" si="42">ROUND(($K33*0.7)+((($N33+$N34)/2)*0.3),4)</f>
         <v>0.93</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="37">
         <f t="shared" ref="R33" si="43">ROUND(($K33*0.8)+((($N33+$N34)/2)*0.2),4)</f>
         <v>0.93</v>
       </c>
-      <c r="S33" s="33">
+      <c r="S33" s="37">
         <f t="shared" ref="S33" si="44">ROUND(($K33*0.9)+((($N33+$N34)/2)*0.1),4)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="53"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="34"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="38"/>
       <c r="L34" s="13" t="s">
         <v>71</v>
       </c>
@@ -2893,106 +2935,106 @@
       <c r="N34" s="12">
         <v>0.93</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
     </row>
     <row r="38" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
     </row>
     <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="56" t="s">
+      <c r="D40" s="54"/>
+      <c r="E40" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55" t="s">
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="38" t="s">
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P40" s="38" t="s">
+      <c r="P40" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q40" s="38" t="s">
+      <c r="Q40" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R40" s="38" t="s">
+      <c r="R40" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S40" s="38" t="s">
+      <c r="S40" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="56"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="8" t="s">
         <v>1</v>
       </c>
@@ -3017,41 +3059,41 @@
       <c r="N41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="41">
         <v>0.01</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="42">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="47" t="s">
+      <c r="I42" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="47" t="s">
+      <c r="J42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="47" t="s">
+      <c r="K42" s="51" t="s">
         <v>29</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -3063,40 +3105,40 @@
       <c r="N42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="35">
         <f>ROUND(($K42*0.5)+((($N42+$N43)/2)*0.5),4)</f>
         <v>0.83</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="35">
         <f>ROUND(($K42*0.6)+((($N42+$N43)/2)*0.4),4)</f>
         <v>0.83</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="35">
         <f>ROUND(($K42*0.7)+((($N42+$N43)/2)*0.3),4)</f>
         <v>0.83</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="35">
         <f>ROUND(($K42*0.8)+((($N42+$N43)/2)*0.2),4)</f>
         <v>0.83</v>
       </c>
-      <c r="S42" s="36">
+      <c r="S42" s="35">
         <f>ROUND(($K42*0.9)+((($N42+$N43)/2)*0.1),4)</f>
         <v>0.83</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
       <c r="L43" s="5" t="s">
         <v>29</v>
       </c>
@@ -3106,39 +3148,39 @@
       <c r="N43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
-      <c r="C44" s="49" t="s">
+      <c r="B44" s="56"/>
+      <c r="C44" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="42">
         <v>20</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="35">
         <v>0.43130000000000002</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="47" t="s">
+      <c r="K44" s="51" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -3150,40 +3192,40 @@
       <c r="N44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="35">
         <f>ROUND(($K44*0.5)+((($N44+$N45)/2)*0.5),4)</f>
         <v>0.83750000000000002</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44" s="35">
         <f t="shared" ref="P44" si="45">ROUND(($K44*0.6)+((($N44+$N45)/2)*0.4),4)</f>
         <v>0.83799999999999997</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="35">
         <f t="shared" ref="Q44" si="46">ROUND(($K44*0.7)+((($N44+$N45)/2)*0.3),4)</f>
         <v>0.83850000000000002</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="35">
         <f t="shared" ref="R44" si="47">ROUND(($K44*0.8)+((($N44+$N45)/2)*0.2),4)</f>
         <v>0.83899999999999997</v>
       </c>
-      <c r="S44" s="36">
+      <c r="S44" s="35">
         <f t="shared" ref="S44" si="48">ROUND(($K44*0.9)+((($N44+$N45)/2)*0.1),4)</f>
         <v>0.83950000000000002</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="49"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
       <c r="L45" s="5" t="s">
         <v>43</v>
       </c>
@@ -3193,39 +3235,39 @@
       <c r="N45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="53" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="54">
+      <c r="D46" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="45">
         <v>20</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="47" t="s">
         <v>80</v>
       </c>
       <c r="L46" s="13" t="s">
@@ -3237,40 +3279,40 @@
       <c r="N46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O46" s="33">
+      <c r="O46" s="37">
         <f>ROUND(($K46*0.5)+((($N46+$N47)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P46" s="33">
+      <c r="P46" s="37">
         <f t="shared" ref="P46" si="49">ROUND(($K46*0.6)+((($N46+$N47)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q46" s="33">
+      <c r="Q46" s="37">
         <f t="shared" ref="Q46" si="50">ROUND(($K46*0.7)+((($N46+$N47)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R46" s="33">
+      <c r="R46" s="37">
         <f t="shared" ref="R46" si="51">ROUND(($K46*0.8)+((($N46+$N47)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S46" s="33">
+      <c r="S46" s="37">
         <f t="shared" ref="S46" si="52">ROUND(($K46*0.9)+((($N46+$N47)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="53"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="13" t="s">
         <v>71</v>
       </c>
@@ -3280,39 +3322,39 @@
       <c r="N47" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="49" t="s">
+      <c r="B48" s="56"/>
+      <c r="C48" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="42">
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>0.15090000000000001</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>0.9375</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>0.3301</v>
       </c>
-      <c r="J48" s="51" t="s">
+      <c r="J48" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="35">
         <v>0.91</v>
       </c>
       <c r="L48" s="3">
@@ -3324,40 +3366,40 @@
       <c r="N48" s="7">
         <v>0.91</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="35">
         <f>ROUND(($K48*0.5)+((($N48+$N49)/2)*0.5),4)</f>
         <v>0.90749999999999997</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48" s="35">
         <f t="shared" ref="P48" si="53">ROUND(($K48*0.6)+((($N48+$N49)/2)*0.4),4)</f>
         <v>0.90800000000000003</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="35">
         <f t="shared" ref="Q48" si="54">ROUND(($K48*0.7)+((($N48+$N49)/2)*0.3),4)</f>
         <v>0.90849999999999997</v>
       </c>
-      <c r="R48" s="36">
+      <c r="R48" s="35">
         <f t="shared" ref="R48" si="55">ROUND(($K48*0.8)+((($N48+$N49)/2)*0.2),4)</f>
         <v>0.90900000000000003</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="35">
         <f t="shared" ref="S48" si="56">ROUND(($K48*0.9)+((($N48+$N49)/2)*0.1),4)</f>
         <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="46"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="37"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="36"/>
       <c r="L49" s="6" t="s">
         <v>82</v>
       </c>
@@ -3367,84 +3409,84 @@
       <c r="N49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="56" t="s">
+      <c r="D51" s="54"/>
+      <c r="E51" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="56" t="s">
+      <c r="F51" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55" t="s">
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="38" t="s">
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P51" s="38" t="s">
+      <c r="P51" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q51" s="38" t="s">
+      <c r="Q51" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R51" s="38" t="s">
+      <c r="R51" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S51" s="38" t="s">
+      <c r="S51" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="56"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="8" t="s">
         <v>1</v>
       </c>
@@ -3469,41 +3511,41 @@
       <c r="N52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="41">
         <v>0.01</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="42">
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="47" t="s">
+      <c r="G53" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="47" t="s">
+      <c r="H53" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="47" t="s">
+      <c r="K53" s="51" t="s">
         <v>25</v>
       </c>
       <c r="L53" s="5" t="s">
@@ -3515,40 +3557,40 @@
       <c r="N53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="35">
         <f>ROUND(($K53*0.5)+((($N53+$N54)/2)*0.5),4)</f>
         <v>0.8</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="35">
         <f>ROUND(($K53*0.6)+((($N53+$N54)/2)*0.4),4)</f>
         <v>0.8</v>
       </c>
-      <c r="Q53" s="36">
+      <c r="Q53" s="35">
         <f>ROUND(($K53*0.7)+((($N53+$N54)/2)*0.3),4)</f>
         <v>0.8</v>
       </c>
-      <c r="R53" s="36">
+      <c r="R53" s="35">
         <f>ROUND(($K53*0.8)+((($N53+$N54)/2)*0.2),4)</f>
         <v>0.8</v>
       </c>
-      <c r="S53" s="36">
+      <c r="S53" s="35">
         <f>ROUND(($K53*0.9)+((($N53+$N54)/2)*0.1),4)</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="49"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
       <c r="L54" s="5" t="s">
         <v>86</v>
       </c>
@@ -3558,39 +3600,39 @@
       <c r="N54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="45"/>
-      <c r="C55" s="49" t="s">
+      <c r="B55" s="56"/>
+      <c r="C55" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="42">
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="47" t="s">
+      <c r="H55" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="35">
         <v>0.41760000000000003</v>
       </c>
-      <c r="J55" s="47" t="s">
+      <c r="J55" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="K55" s="47" t="s">
+      <c r="K55" s="51" t="s">
         <v>50</v>
       </c>
       <c r="L55" s="5" t="s">
@@ -3602,40 +3644,40 @@
       <c r="N55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="35">
         <f>ROUND(($K55*0.5)+((($N55+$N56)/2)*0.5),4)</f>
         <v>0.85250000000000004</v>
       </c>
-      <c r="P55" s="36">
+      <c r="P55" s="35">
         <f t="shared" ref="P55" si="57">ROUND(($K55*0.6)+((($N55+$N56)/2)*0.4),4)</f>
         <v>0.85199999999999998</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="35">
         <f t="shared" ref="Q55" si="58">ROUND(($K55*0.7)+((($N55+$N56)/2)*0.3),4)</f>
         <v>0.85150000000000003</v>
       </c>
-      <c r="R55" s="36">
+      <c r="R55" s="35">
         <f t="shared" ref="R55" si="59">ROUND(($K55*0.8)+((($N55+$N56)/2)*0.2),4)</f>
         <v>0.85099999999999998</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="35">
         <f t="shared" ref="S55" si="60">ROUND(($K55*0.9)+((($N55+$N56)/2)*0.1),4)</f>
         <v>0.85050000000000003</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="49"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
       <c r="F56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
       <c r="L56" s="5" t="s">
         <v>29</v>
       </c>
@@ -3645,39 +3687,39 @@
       <c r="N56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
-      <c r="C57" s="53" t="s">
+      <c r="B57" s="56"/>
+      <c r="C57" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="54">
+      <c r="D57" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="45">
         <v>20</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="I57" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="K57" s="47" t="s">
         <v>71</v>
       </c>
       <c r="L57" s="13" t="s">
@@ -3689,40 +3731,40 @@
       <c r="N57" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="37">
         <f>ROUND(($K57*0.5)+((($N57+$N58)/2)*0.5),4)</f>
         <v>0.9375</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="37">
         <f t="shared" ref="P57" si="61">ROUND(($K57*0.6)+((($N57+$N58)/2)*0.4),4)</f>
         <v>0.93799999999999994</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="37">
         <f t="shared" ref="Q57" si="62">ROUND(($K57*0.7)+((($N57+$N58)/2)*0.3),4)</f>
         <v>0.9385</v>
       </c>
-      <c r="R57" s="33">
+      <c r="R57" s="37">
         <f t="shared" ref="R57" si="63">ROUND(($K57*0.8)+((($N57+$N58)/2)*0.2),4)</f>
         <v>0.93899999999999995</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="37">
         <f t="shared" ref="S57" si="64">ROUND(($K57*0.9)+((($N57+$N58)/2)*0.1),4)</f>
         <v>0.9395</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="45"/>
       <c r="F58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
       <c r="L58" s="13" t="s">
         <v>71</v>
       </c>
@@ -3732,39 +3774,39 @@
       <c r="N58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
-      <c r="C59" s="49" t="s">
+      <c r="B59" s="56"/>
+      <c r="C59" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="42">
         <v>20</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="35">
         <v>0.16370000000000001</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="35">
         <v>0.94059999999999999</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="35">
         <v>0.3306</v>
       </c>
-      <c r="J59" s="51" t="s">
+      <c r="J59" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="35">
         <v>0.89</v>
       </c>
       <c r="L59" s="3">
@@ -3776,40 +3818,40 @@
       <c r="N59" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O59" s="36">
+      <c r="O59" s="35">
         <f>ROUND(($K59*0.5)+((($N59+$N60)/2)*0.5),4)</f>
         <v>0.89249999999999996</v>
       </c>
-      <c r="P59" s="36">
+      <c r="P59" s="35">
         <f t="shared" ref="P59" si="65">ROUND(($K59*0.6)+((($N59+$N60)/2)*0.4),4)</f>
         <v>0.89200000000000002</v>
       </c>
-      <c r="Q59" s="36">
+      <c r="Q59" s="35">
         <f t="shared" ref="Q59" si="66">ROUND(($K59*0.7)+((($N59+$N60)/2)*0.3),4)</f>
         <v>0.89149999999999996</v>
       </c>
-      <c r="R59" s="36">
+      <c r="R59" s="35">
         <f t="shared" ref="R59" si="67">ROUND(($K59*0.8)+((($N59+$N60)/2)*0.2),4)</f>
         <v>0.89100000000000001</v>
       </c>
-      <c r="S59" s="36">
+      <c r="S59" s="35">
         <f t="shared" ref="S59" si="68">ROUND(($K59*0.9)+((($N59+$N60)/2)*0.1),4)</f>
         <v>0.89049999999999996</v>
       </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="46"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="49"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="37"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="36"/>
       <c r="L60" s="6" t="s">
         <v>30</v>
       </c>
@@ -3819,84 +3861,84 @@
       <c r="N60" s="3">
         <v>0.89</v>
       </c>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
     </row>
     <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="56" t="s">
+      <c r="D62" s="54"/>
+      <c r="E62" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55" t="s">
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="38" t="s">
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P62" s="38" t="s">
+      <c r="P62" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q62" s="38" t="s">
+      <c r="Q62" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R62" s="38" t="s">
+      <c r="R62" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S62" s="38" t="s">
+      <c r="S62" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="56"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="8" t="s">
         <v>1</v>
       </c>
@@ -3921,41 +3963,41 @@
       <c r="N63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="41">
         <v>0.01</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="42">
         <v>20</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="47" t="s">
+      <c r="G64" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="J64" s="47" t="s">
+      <c r="J64" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="K64" s="47" t="s">
+      <c r="K64" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L64" s="5" t="s">
@@ -3967,40 +4009,40 @@
       <c r="N64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O64" s="36">
+      <c r="O64" s="35">
         <f>ROUND(($K64*0.5)+((($N64+$N65)/2)*0.5),4)</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="P64" s="36">
+      <c r="P64" s="35">
         <f>ROUND(($K64*0.6)+((($N64+$N65)/2)*0.4),4)</f>
         <v>0.91200000000000003</v>
       </c>
-      <c r="Q64" s="36">
+      <c r="Q64" s="35">
         <f>ROUND(($K64*0.7)+((($N64+$N65)/2)*0.3),4)</f>
         <v>0.91149999999999998</v>
       </c>
-      <c r="R64" s="36">
+      <c r="R64" s="35">
         <f>ROUND(($K64*0.8)+((($N64+$N65)/2)*0.2),4)</f>
         <v>0.91100000000000003</v>
       </c>
-      <c r="S64" s="36">
+      <c r="S64" s="35">
         <f>ROUND(($K64*0.9)+((($N64+$N65)/2)*0.1),4)</f>
         <v>0.91049999999999998</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="45"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="49"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
       <c r="L65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4010,39 +4052,39 @@
       <c r="N65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="36"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="45"/>
-      <c r="C66" s="49" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="42">
         <v>20</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I66" s="36">
+      <c r="I66" s="35">
         <v>0.54169999999999996</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L66" s="5" t="s">
@@ -4054,40 +4096,40 @@
       <c r="N66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O66" s="36">
+      <c r="O66" s="35">
         <f>ROUND(($K66*0.5)+((($N66+$N67)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P66" s="36">
+      <c r="P66" s="35">
         <f t="shared" ref="P66" si="69">ROUND(($K66*0.6)+((($N66+$N67)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q66" s="36">
+      <c r="Q66" s="35">
         <f t="shared" ref="Q66" si="70">ROUND(($K66*0.7)+((($N66+$N67)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R66" s="36">
+      <c r="R66" s="35">
         <f t="shared" ref="R66" si="71">ROUND(($K66*0.8)+((($N66+$N67)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S66" s="36">
+      <c r="S66" s="35">
         <f t="shared" ref="S66" si="72">ROUND(($K66*0.9)+((($N66+$N67)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="45"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="49"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
       <c r="L67" s="5" t="s">
         <v>82</v>
       </c>
@@ -4097,39 +4139,39 @@
       <c r="N67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="45"/>
-      <c r="C68" s="49" t="s">
+      <c r="B68" s="56"/>
+      <c r="C68" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="41">
         <v>1E-4</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="42">
         <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="51" t="s">
+      <c r="G68" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="I68" s="51" t="s">
+      <c r="I68" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="J68" s="51" t="s">
+      <c r="J68" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="K68" s="51" t="s">
+      <c r="K68" s="43" t="s">
         <v>30</v>
       </c>
       <c r="L68" s="6" t="s">
@@ -4141,40 +4183,40 @@
       <c r="N68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O68" s="36">
+      <c r="O68" s="35">
         <f>ROUND(($K68*0.5)+((($N68+$N69)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P68" s="36">
+      <c r="P68" s="35">
         <f t="shared" ref="P68" si="73">ROUND(($K68*0.6)+((($N68+$N69)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q68" s="36">
+      <c r="Q68" s="35">
         <f t="shared" ref="Q68" si="74">ROUND(($K68*0.7)+((($N68+$N69)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R68" s="36">
+      <c r="R68" s="35">
         <f t="shared" ref="R68" si="75">ROUND(($K68*0.8)+((($N68+$N69)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S68" s="36">
+      <c r="S68" s="35">
         <f t="shared" ref="S68" si="76">ROUND(($K68*0.9)+((($N68+$N69)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="45"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="49"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
       <c r="F69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
       <c r="L69" s="6" t="s">
         <v>71</v>
       </c>
@@ -4184,39 +4226,39 @@
       <c r="N69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="45"/>
-      <c r="C70" s="53" t="s">
+      <c r="B70" s="56"/>
+      <c r="C70" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="45">
         <v>20</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="47">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="37">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="37">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J70" s="40" t="s">
+      <c r="J70" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="K70" s="33">
+      <c r="K70" s="37">
         <v>0.92</v>
       </c>
       <c r="L70" s="15" t="s">
@@ -4228,40 +4270,40 @@
       <c r="N70" s="12">
         <v>0.92</v>
       </c>
-      <c r="O70" s="33">
+      <c r="O70" s="37">
         <f>ROUND(($K70*0.5)+((($N70+$N71)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P70" s="33">
+      <c r="P70" s="37">
         <f t="shared" ref="P70" si="77">ROUND(($K70*0.6)+((($N70+$N71)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q70" s="33">
+      <c r="Q70" s="37">
         <f t="shared" ref="Q70" si="78">ROUND(($K70*0.7)+((($N70+$N71)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R70" s="33">
+      <c r="R70" s="37">
         <f t="shared" ref="R70" si="79">ROUND(($K70*0.8)+((($N70+$N71)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S70" s="33">
+      <c r="S70" s="37">
         <f t="shared" ref="S70" si="80">ROUND(($K70*0.9)+((($N70+$N71)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="46"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="53"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="34"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="38"/>
       <c r="L71" s="13" t="s">
         <v>71</v>
       </c>
@@ -4271,106 +4313,106 @@
       <c r="N71" s="12">
         <v>0.92</v>
       </c>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
     </row>
     <row r="75" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="58"/>
-      <c r="S76" s="58"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
     </row>
     <row r="77" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="56" t="s">
+      <c r="D77" s="54"/>
+      <c r="E77" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F77" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55" t="s">
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="38" t="s">
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P77" s="38" t="s">
+      <c r="P77" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q77" s="38" t="s">
+      <c r="Q77" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R77" s="38" t="s">
+      <c r="R77" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S77" s="38" t="s">
+      <c r="S77" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="56"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="8" t="s">
         <v>1</v>
       </c>
@@ -4395,41 +4437,41 @@
       <c r="N78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="50">
+      <c r="D79" s="41">
         <v>0.01</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="42">
         <v>30</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="47" t="s">
+      <c r="G79" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I79" s="47" t="s">
+      <c r="I79" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="J79" s="47" t="s">
+      <c r="J79" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="K79" s="47" t="s">
+      <c r="K79" s="51" t="s">
         <v>43</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -4441,40 +4483,40 @@
       <c r="N79" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O79" s="36">
+      <c r="O79" s="35">
         <f t="shared" ref="O79" si="81">ROUND(($K79*0.5)+((($N79+$N80)/2)*0.5),4)</f>
         <v>0.79</v>
       </c>
-      <c r="P79" s="36">
+      <c r="P79" s="35">
         <f>ROUND(($K79*0.6)+((($N79+$N80)/2)*0.4),4)</f>
         <v>0.79</v>
       </c>
-      <c r="Q79" s="36">
+      <c r="Q79" s="35">
         <f>ROUND(($K79*0.7)+((($N79+$N80)/2)*0.3),4)</f>
         <v>0.79</v>
       </c>
-      <c r="R79" s="36">
+      <c r="R79" s="35">
         <f>ROUND(($K79*0.8)+((($N79+$N80)/2)*0.2),4)</f>
         <v>0.79</v>
       </c>
-      <c r="S79" s="36">
+      <c r="S79" s="35">
         <f>ROUND(($K79*0.9)+((($N79+$N80)/2)*0.1),4)</f>
         <v>0.79</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="45"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="49"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
       <c r="L80" s="5" t="s">
         <v>87</v>
       </c>
@@ -4484,39 +4526,39 @@
       <c r="N80" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="45"/>
-      <c r="C81" s="49" t="s">
+      <c r="B81" s="56"/>
+      <c r="C81" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="50">
+      <c r="D81" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E81" s="42">
         <v>30</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="47" t="s">
+      <c r="G81" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H81" s="47" t="s">
+      <c r="H81" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="I81" s="36">
+      <c r="I81" s="35">
         <v>0.37840000000000001</v>
       </c>
-      <c r="J81" s="47" t="s">
+      <c r="J81" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="K81" s="47" t="s">
+      <c r="K81" s="51" t="s">
         <v>24</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -4528,40 +4570,40 @@
       <c r="N81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O81" s="36">
+      <c r="O81" s="35">
         <f t="shared" ref="O81" si="82">ROUND(($K81*0.5)+((($N81+$N82)/2)*0.5),4)</f>
         <v>0.88749999999999996</v>
       </c>
-      <c r="P81" s="36">
+      <c r="P81" s="35">
         <f t="shared" ref="P81" si="83">ROUND(($K81*0.6)+((($N81+$N82)/2)*0.4),4)</f>
         <v>0.88800000000000001</v>
       </c>
-      <c r="Q81" s="36">
+      <c r="Q81" s="35">
         <f t="shared" ref="Q81" si="84">ROUND(($K81*0.7)+((($N81+$N82)/2)*0.3),4)</f>
         <v>0.88849999999999996</v>
       </c>
-      <c r="R81" s="36">
+      <c r="R81" s="35">
         <f t="shared" ref="R81" si="85">ROUND(($K81*0.8)+((($N81+$N82)/2)*0.2),4)</f>
         <v>0.88900000000000001</v>
       </c>
-      <c r="S81" s="36">
+      <c r="S81" s="35">
         <f t="shared" ref="S81" si="86">ROUND(($K81*0.9)+((($N81+$N82)/2)*0.1),4)</f>
         <v>0.88949999999999996</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="45"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="49"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
       <c r="L82" s="5" t="s">
         <v>80</v>
       </c>
@@ -4571,39 +4613,39 @@
       <c r="N82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="45"/>
-      <c r="C83" s="53" t="s">
+      <c r="B83" s="56"/>
+      <c r="C83" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="54">
+      <c r="D83" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E83" s="53">
+      <c r="E83" s="45">
         <v>30</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="G83" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="40" t="s">
+      <c r="H83" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I83" s="40" t="s">
+      <c r="I83" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="J83" s="40" t="s">
+      <c r="J83" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="K83" s="40" t="s">
+      <c r="K83" s="47" t="s">
         <v>80</v>
       </c>
       <c r="L83" s="13" t="s">
@@ -4615,40 +4657,40 @@
       <c r="N83" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O83" s="33">
+      <c r="O83" s="37">
         <f t="shared" ref="O83" si="87">ROUND(($K83*0.5)+((($N83+$N84)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P83" s="33">
+      <c r="P83" s="37">
         <f t="shared" ref="P83" si="88">ROUND(($K83*0.6)+((($N83+$N84)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q83" s="33">
+      <c r="Q83" s="37">
         <f t="shared" ref="Q83" si="89">ROUND(($K83*0.7)+((($N83+$N84)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R83" s="33">
+      <c r="R83" s="37">
         <f t="shared" ref="R83" si="90">ROUND(($K83*0.8)+((($N83+$N84)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S83" s="33">
+      <c r="S83" s="37">
         <f t="shared" ref="S83" si="91">ROUND(($K83*0.9)+((($N83+$N84)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="45"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="53"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
       <c r="L84" s="13" t="s">
         <v>71</v>
       </c>
@@ -4658,39 +4700,39 @@
       <c r="N84" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="45"/>
-      <c r="C85" s="49" t="s">
+      <c r="B85" s="56"/>
+      <c r="C85" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="42">
         <v>30</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="35">
         <v>0.14610000000000001</v>
       </c>
-      <c r="H85" s="36">
+      <c r="H85" s="35">
         <v>0.94630000000000003</v>
       </c>
-      <c r="I85" s="36">
+      <c r="I85" s="35">
         <v>0.35749999999999998</v>
       </c>
-      <c r="J85" s="51" t="s">
+      <c r="J85" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K85" s="36">
+      <c r="K85" s="35">
         <v>0.88</v>
       </c>
       <c r="L85" s="3">
@@ -4702,40 +4744,40 @@
       <c r="N85" s="7">
         <v>0.89</v>
       </c>
-      <c r="O85" s="36">
+      <c r="O85" s="35">
         <f t="shared" ref="O85" si="92">ROUND(($K85*0.5)+((($N85+$N86)/2)*0.5),4)</f>
         <v>0.88249999999999995</v>
       </c>
-      <c r="P85" s="36">
+      <c r="P85" s="35">
         <f t="shared" ref="P85" si="93">ROUND(($K85*0.6)+((($N85+$N86)/2)*0.4),4)</f>
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q85" s="36">
+      <c r="Q85" s="35">
         <f t="shared" ref="Q85" si="94">ROUND(($K85*0.7)+((($N85+$N86)/2)*0.3),4)</f>
         <v>0.88149999999999995</v>
       </c>
-      <c r="R85" s="36">
+      <c r="R85" s="35">
         <f t="shared" ref="R85" si="95">ROUND(($K85*0.8)+((($N85+$N86)/2)*0.2),4)</f>
         <v>0.88100000000000001</v>
       </c>
-      <c r="S85" s="36">
+      <c r="S85" s="35">
         <f t="shared" ref="S85" si="96">ROUND(($K85*0.9)+((($N85+$N86)/2)*0.1),4)</f>
         <v>0.88049999999999995</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="46"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="49"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="37"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="36"/>
       <c r="L86" s="6" t="s">
         <v>30</v>
       </c>
@@ -4745,84 +4787,84 @@
       <c r="N86" s="7">
         <v>0.88</v>
       </c>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
     </row>
     <row r="88" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="42" t="s">
+      <c r="C88" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="56" t="s">
+      <c r="D88" s="54"/>
+      <c r="E88" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55" t="s">
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="38" t="s">
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P88" s="38" t="s">
+      <c r="P88" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q88" s="38" t="s">
+      <c r="Q88" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R88" s="38" t="s">
+      <c r="R88" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S88" s="38" t="s">
+      <c r="S88" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="56"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="8" t="s">
         <v>1</v>
       </c>
@@ -4847,41 +4889,41 @@
       <c r="N89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="50">
+      <c r="D90" s="41">
         <v>0.01</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="42">
         <v>30</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H90" s="47" t="s">
+      <c r="H90" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="I90" s="47" t="s">
+      <c r="I90" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="J90" s="47" t="s">
+      <c r="J90" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="K90" s="47" t="s">
+      <c r="K90" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -4893,40 +4935,40 @@
       <c r="N90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O90" s="36">
+      <c r="O90" s="35">
         <f t="shared" ref="O90" si="97">ROUND(($K90*0.5)+((($N90+$N91)/2)*0.5),4)</f>
         <v>0.78249999999999997</v>
       </c>
-      <c r="P90" s="36">
+      <c r="P90" s="35">
         <f>ROUND(($K90*0.6)+((($N90+$N91)/2)*0.4),4)</f>
         <v>0.78200000000000003</v>
       </c>
-      <c r="Q90" s="36">
+      <c r="Q90" s="35">
         <f>ROUND(($K90*0.7)+((($N90+$N91)/2)*0.3),4)</f>
         <v>0.78149999999999997</v>
       </c>
-      <c r="R90" s="36">
+      <c r="R90" s="35">
         <f>ROUND(($K90*0.8)+((($N90+$N91)/2)*0.2),4)</f>
         <v>0.78100000000000003</v>
       </c>
-      <c r="S90" s="36">
+      <c r="S90" s="35">
         <f>ROUND(($K90*0.9)+((($N90+$N91)/2)*0.1),4)</f>
         <v>0.78049999999999997</v>
       </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="45"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="49"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
       <c r="L91" s="5" t="s">
         <v>87</v>
       </c>
@@ -4936,39 +4978,39 @@
       <c r="N91" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="45"/>
-      <c r="C92" s="49" t="s">
+      <c r="B92" s="56"/>
+      <c r="C92" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="50">
+      <c r="D92" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E92" s="49">
+      <c r="E92" s="42">
         <v>30</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="H92" s="47" t="s">
+      <c r="H92" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="36">
+      <c r="I92" s="35">
         <v>0.44579999999999997</v>
       </c>
-      <c r="J92" s="47" t="s">
+      <c r="J92" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="K92" s="47" t="s">
+      <c r="K92" s="51" t="s">
         <v>29</v>
       </c>
       <c r="L92" s="5" t="s">
@@ -4980,40 +5022,40 @@
       <c r="N92" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O92" s="36">
+      <c r="O92" s="35">
         <f t="shared" ref="O92" si="98">ROUND(($K92*0.5)+((($N92+$N93)/2)*0.5),4)</f>
         <v>0.83</v>
       </c>
-      <c r="P92" s="36">
+      <c r="P92" s="35">
         <f t="shared" ref="P92" si="99">ROUND(($K92*0.6)+((($N92+$N93)/2)*0.4),4)</f>
         <v>0.83</v>
       </c>
-      <c r="Q92" s="36">
+      <c r="Q92" s="35">
         <f t="shared" ref="Q92" si="100">ROUND(($K92*0.7)+((($N92+$N93)/2)*0.3),4)</f>
         <v>0.83</v>
       </c>
-      <c r="R92" s="36">
+      <c r="R92" s="35">
         <f t="shared" ref="R92" si="101">ROUND(($K92*0.8)+((($N92+$N93)/2)*0.2),4)</f>
         <v>0.83</v>
       </c>
-      <c r="S92" s="36">
+      <c r="S92" s="35">
         <f t="shared" ref="S92" si="102">ROUND(($K92*0.9)+((($N92+$N93)/2)*0.1),4)</f>
         <v>0.83</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="45"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="49"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
       <c r="L93" s="5" t="s">
         <v>30</v>
       </c>
@@ -5023,39 +5065,39 @@
       <c r="N93" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="45"/>
-      <c r="C94" s="53" t="s">
+      <c r="B94" s="56"/>
+      <c r="C94" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="54">
+      <c r="D94" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="45">
         <v>30</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="40" t="s">
+      <c r="G94" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H94" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="40" t="s">
+      <c r="I94" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J94" s="40" t="s">
+      <c r="J94" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="K94" s="40" t="s">
+      <c r="K94" s="47" t="s">
         <v>82</v>
       </c>
       <c r="L94" s="13" t="s">
@@ -5067,40 +5109,40 @@
       <c r="N94" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O94" s="33">
+      <c r="O94" s="37">
         <f t="shared" ref="O94" si="103">ROUND(($K94*0.5)+((($N94+$N95)/2)*0.5),4)</f>
         <v>0.92749999999999999</v>
       </c>
-      <c r="P94" s="33">
+      <c r="P94" s="37">
         <f t="shared" ref="P94" si="104">ROUND(($K94*0.6)+((($N94+$N95)/2)*0.4),4)</f>
         <v>0.92800000000000005</v>
       </c>
-      <c r="Q94" s="33">
+      <c r="Q94" s="37">
         <f t="shared" ref="Q94" si="105">ROUND(($K94*0.7)+((($N94+$N95)/2)*0.3),4)</f>
         <v>0.92849999999999999</v>
       </c>
-      <c r="R94" s="33">
+      <c r="R94" s="37">
         <f t="shared" ref="R94" si="106">ROUND(($K94*0.8)+((($N94+$N95)/2)*0.2),4)</f>
         <v>0.92900000000000005</v>
       </c>
-      <c r="S94" s="33">
+      <c r="S94" s="37">
         <f t="shared" ref="S94" si="107">ROUND(($K94*0.9)+((($N94+$N95)/2)*0.1),4)</f>
         <v>0.92949999999999999</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="45"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="53"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="45"/>
       <c r="F95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
       <c r="L95" s="13" t="s">
         <v>71</v>
       </c>
@@ -5110,39 +5152,39 @@
       <c r="N95" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="45"/>
-      <c r="C96" s="49" t="s">
+      <c r="B96" s="56"/>
+      <c r="C96" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="42">
         <v>30</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G96" s="36">
+      <c r="G96" s="35">
         <v>0.1195</v>
       </c>
-      <c r="H96" s="36">
+      <c r="H96" s="35">
         <v>0.95440000000000003</v>
       </c>
-      <c r="I96" s="36">
+      <c r="I96" s="35">
         <v>0.29320000000000002</v>
       </c>
-      <c r="J96" s="51" t="s">
+      <c r="J96" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="K96" s="36">
+      <c r="K96" s="35">
         <v>0.92</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -5154,40 +5196,40 @@
       <c r="N96" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O96" s="36">
+      <c r="O96" s="35">
         <f t="shared" ref="O96" si="108">ROUND(($K96*0.5)+((($N96+$N97)/2)*0.5),4)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="P96" s="36">
+      <c r="P96" s="35">
         <f t="shared" ref="P96" si="109">ROUND(($K96*0.6)+((($N96+$N97)/2)*0.4),4)</f>
         <v>0.91800000000000004</v>
       </c>
-      <c r="Q96" s="36">
+      <c r="Q96" s="35">
         <f t="shared" ref="Q96" si="110">ROUND(($K96*0.7)+((($N96+$N97)/2)*0.3),4)</f>
         <v>0.91849999999999998</v>
       </c>
-      <c r="R96" s="36">
+      <c r="R96" s="35">
         <f t="shared" ref="R96" si="111">ROUND(($K96*0.8)+((($N96+$N97)/2)*0.2),4)</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="S96" s="36">
+      <c r="S96" s="35">
         <f t="shared" ref="S96" si="112">ROUND(($K96*0.9)+((($N96+$N97)/2)*0.1),4)</f>
         <v>0.91949999999999998</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B97" s="46"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="49"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="37"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="36"/>
       <c r="L97" s="6" t="s">
         <v>82</v>
       </c>
@@ -5197,84 +5239,84 @@
       <c r="N97" s="3">
         <v>0.91</v>
       </c>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="59"/>
-      <c r="S98" s="59"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="34"/>
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="43"/>
-      <c r="E99" s="56" t="s">
+      <c r="D99" s="54"/>
+      <c r="E99" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F99" s="56" t="s">
+      <c r="F99" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55" t="s">
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="38" t="s">
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P99" s="38" t="s">
+      <c r="P99" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q99" s="38" t="s">
+      <c r="Q99" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R99" s="38" t="s">
+      <c r="R99" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S99" s="38" t="s">
+      <c r="S99" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="100" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="56"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="8" t="s">
         <v>1</v>
       </c>
@@ -5299,41 +5341,41 @@
       <c r="N100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="40"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="50">
+      <c r="D101" s="41">
         <v>0.01</v>
       </c>
-      <c r="E101" s="49">
+      <c r="E101" s="42">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="47" t="s">
+      <c r="G101" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="H101" s="47" t="s">
+      <c r="H101" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="I101" s="47" t="s">
+      <c r="I101" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="J101" s="47" t="s">
+      <c r="J101" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="K101" s="47" t="s">
+      <c r="K101" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L101" s="5" t="s">
@@ -5345,40 +5387,40 @@
       <c r="N101" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O101" s="36">
+      <c r="O101" s="35">
         <f t="shared" ref="O101" si="113">ROUND(($K101*0.5)+((($N101+$N102)/2)*0.5),4)</f>
         <v>0.90749999999999997</v>
       </c>
-      <c r="P101" s="36">
+      <c r="P101" s="35">
         <f>ROUND(($K101*0.6)+((($N101+$N102)/2)*0.4),4)</f>
         <v>0.90800000000000003</v>
       </c>
-      <c r="Q101" s="36">
+      <c r="Q101" s="35">
         <f>ROUND(($K101*0.7)+((($N101+$N102)/2)*0.3),4)</f>
         <v>0.90849999999999997</v>
       </c>
-      <c r="R101" s="36">
+      <c r="R101" s="35">
         <f>ROUND(($K101*0.8)+((($N101+$N102)/2)*0.2),4)</f>
         <v>0.90900000000000003</v>
       </c>
-      <c r="S101" s="36">
+      <c r="S101" s="35">
         <f>ROUND(($K101*0.9)+((($N101+$N102)/2)*0.1),4)</f>
         <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="45"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="49"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
       <c r="L102" s="5" t="s">
         <v>71</v>
       </c>
@@ -5388,39 +5430,39 @@
       <c r="N102" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B103" s="45"/>
-      <c r="C103" s="49" t="s">
+      <c r="B103" s="56"/>
+      <c r="C103" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="50">
+      <c r="D103" s="41">
         <v>1E-3</v>
       </c>
-      <c r="E103" s="49">
+      <c r="E103" s="42">
         <v>30</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G103" s="47" t="s">
+      <c r="G103" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="H103" s="47" t="s">
+      <c r="H103" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I103" s="36">
+      <c r="I103" s="35">
         <v>0.60680000000000001</v>
       </c>
-      <c r="J103" s="47" t="s">
+      <c r="J103" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="47" t="s">
+      <c r="K103" s="51" t="s">
         <v>30</v>
       </c>
       <c r="L103" s="5" t="s">
@@ -5432,40 +5474,40 @@
       <c r="N103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="36">
+      <c r="O103" s="35">
         <f t="shared" ref="O103" si="114">ROUND(($K103*0.5)+((($N103+$N104)/2)*0.5),4)</f>
         <v>0.91</v>
       </c>
-      <c r="P103" s="36">
+      <c r="P103" s="35">
         <f t="shared" ref="P103" si="115">ROUND(($K103*0.6)+((($N103+$N104)/2)*0.4),4)</f>
         <v>0.91</v>
       </c>
-      <c r="Q103" s="36">
+      <c r="Q103" s="35">
         <f t="shared" ref="Q103" si="116">ROUND(($K103*0.7)+((($N103+$N104)/2)*0.3),4)</f>
         <v>0.91</v>
       </c>
-      <c r="R103" s="36">
+      <c r="R103" s="35">
         <f t="shared" ref="R103" si="117">ROUND(($K103*0.8)+((($N103+$N104)/2)*0.2),4)</f>
         <v>0.91</v>
       </c>
-      <c r="S103" s="36">
+      <c r="S103" s="35">
         <f t="shared" ref="S103" si="118">ROUND(($K103*0.9)+((($N103+$N104)/2)*0.1),4)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B104" s="45"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="49"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
       <c r="L104" s="5" t="s">
         <v>71</v>
       </c>
@@ -5475,39 +5517,39 @@
       <c r="N104" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="37"/>
-      <c r="S104" s="37"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B105" s="45"/>
-      <c r="C105" s="49" t="s">
+      <c r="B105" s="56"/>
+      <c r="C105" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="50">
+      <c r="D105" s="41">
         <v>1E-4</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="42">
         <v>30</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="51" t="s">
+      <c r="G105" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="J105" s="51" t="s">
+      <c r="J105" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="K105" s="51" t="s">
+      <c r="K105" s="43" t="s">
         <v>80</v>
       </c>
       <c r="L105" s="6" t="s">
@@ -5519,40 +5561,40 @@
       <c r="N105" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O105" s="36">
+      <c r="O105" s="35">
         <f t="shared" ref="O105" si="119">ROUND(($K105*0.5)+((($N105+$N106)/2)*0.5),4)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="P105" s="36">
+      <c r="P105" s="35">
         <f t="shared" ref="P105" si="120">ROUND(($K105*0.6)+((($N105+$N106)/2)*0.4),4)</f>
         <v>0.91800000000000004</v>
       </c>
-      <c r="Q105" s="36">
+      <c r="Q105" s="35">
         <f t="shared" ref="Q105" si="121">ROUND(($K105*0.7)+((($N105+$N106)/2)*0.3),4)</f>
         <v>0.91849999999999998</v>
       </c>
-      <c r="R105" s="36">
+      <c r="R105" s="35">
         <f t="shared" ref="R105" si="122">ROUND(($K105*0.8)+((($N105+$N106)/2)*0.2),4)</f>
         <v>0.91900000000000004</v>
       </c>
-      <c r="S105" s="36">
+      <c r="S105" s="35">
         <f t="shared" ref="S105" si="123">ROUND(($K105*0.9)+((($N105+$N106)/2)*0.1),4)</f>
         <v>0.91949999999999998</v>
       </c>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B106" s="45"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="49"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
-      <c r="K106" s="52"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
       <c r="L106" s="6" t="s">
         <v>55</v>
       </c>
@@ -5562,39 +5604,39 @@
       <c r="N106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B107" s="45"/>
-      <c r="C107" s="53" t="s">
+      <c r="B107" s="56"/>
+      <c r="C107" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="54" t="s">
+      <c r="D107" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="53">
+      <c r="E107" s="45">
         <v>30</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="G107" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="I107" s="33">
+      <c r="I107" s="37">
         <v>0.47739999999999999</v>
       </c>
-      <c r="J107" s="40" t="s">
+      <c r="J107" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="K107" s="33">
+      <c r="K107" s="37">
         <v>0.92</v>
       </c>
       <c r="L107" s="15" t="s">
@@ -5606,40 +5648,40 @@
       <c r="N107" s="12">
         <v>0.92</v>
       </c>
-      <c r="O107" s="33">
+      <c r="O107" s="37">
         <f t="shared" ref="O107" si="124">ROUND(($K107*0.5)+((($N107+$N108)/2)*0.5),4)</f>
         <v>0.92</v>
       </c>
-      <c r="P107" s="33">
+      <c r="P107" s="37">
         <f t="shared" ref="P107" si="125">ROUND(($K107*0.6)+((($N107+$N108)/2)*0.4),4)</f>
         <v>0.92</v>
       </c>
-      <c r="Q107" s="33">
+      <c r="Q107" s="37">
         <f t="shared" ref="Q107" si="126">ROUND(($K107*0.7)+((($N107+$N108)/2)*0.3),4)</f>
         <v>0.92</v>
       </c>
-      <c r="R107" s="33">
+      <c r="R107" s="37">
         <f t="shared" ref="R107" si="127">ROUND(($K107*0.8)+((($N107+$N108)/2)*0.2),4)</f>
         <v>0.92</v>
       </c>
-      <c r="S107" s="33">
+      <c r="S107" s="37">
         <f t="shared" ref="S107" si="128">ROUND(($K107*0.9)+((($N107+$N108)/2)*0.1),4)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B108" s="46"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="53"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="45"/>
       <c r="F108" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="34"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="38"/>
       <c r="L108" s="13" t="s">
         <v>71</v>
       </c>
@@ -5649,14 +5691,578 @@
       <c r="N108" s="12">
         <v>0.92</v>
       </c>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
-      <c r="Q108" s="34"/>
-      <c r="R108" s="34"/>
-      <c r="S108" s="34"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
+      <c r="R108" s="38"/>
+      <c r="S108" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="588">
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="S107:S108"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="B75:S75"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="S96:S97"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="S101:S102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="S103:S104"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="S105:S106"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="S85:S86"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="S81:S82"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="P88:P89"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="S99:S100"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B90:B97"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="O88:O89"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="B13:S13"/>
     <mergeCell ref="B24:S24"/>
@@ -5681,570 +6287,6 @@
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="P88:P89"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="S99:S100"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="S64:S65"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="S48:S49"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="S81:S82"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="S105:S106"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="S85:S86"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="R90:R91"/>
-    <mergeCell ref="S90:S91"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="S107:S108"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B38:S38"/>
-    <mergeCell ref="B75:S75"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="R96:R97"/>
-    <mergeCell ref="S96:S97"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="S101:S102"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="S103:S104"/>
-    <mergeCell ref="P90:P91"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="S92:S93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6258,7 +6300,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6277,57 +6319,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="38" t="s">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="27" t="s">
         <v>1</v>
       </c>
@@ -6352,41 +6394,41 @@
       <c r="N3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="77">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="76">
         <v>10</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="74">
         <v>0.96060000000000001</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="74">
         <v>0.26950000000000002</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="74">
         <v>0.90249999999999997</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="74" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="25">
@@ -6398,40 +6440,40 @@
       <c r="N4" s="25">
         <v>0.91</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="72">
         <f>ROUND(($K4*0.5)+((($N4+$N5)/2)*0.5),2)</f>
         <v>0.9</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="72">
         <f>ROUND(($K4*0.6)+((($N4+$N5)/2)*0.4),2)</f>
         <v>0.9</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="72">
         <f>ROUND(($K4*0.7)+((($N4+$N5)/2)*0.3),2)</f>
         <v>0.9</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="72">
         <f>ROUND(($K4*0.8)+((($N4+$N5)/2)*0.2),2)</f>
         <v>0.9</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="72">
         <f>ROUND(($K4*0.9)+((($N4+$N5)/2)*0.1),2)</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="25">
         <v>0.94</v>
       </c>
@@ -6441,41 +6483,41 @@
       <c r="N5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="77">
         <v>1E-4</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="76">
         <v>10</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="74" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="25" t="s">
@@ -6487,40 +6529,40 @@
       <c r="N6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="72">
         <f t="shared" ref="O6" si="0">ROUND(($K6*0.5)+((($N6+$N7)/2)*0.5),2)</f>
         <v>0.87</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="72">
         <f t="shared" ref="P6" si="1">ROUND(($K6*0.6)+((($N6+$N7)/2)*0.4),2)</f>
         <v>0.87</v>
       </c>
-      <c r="Q6" s="63">
+      <c r="Q6" s="72">
         <f t="shared" ref="Q6" si="2">ROUND(($K6*0.7)+((($N6+$N7)/2)*0.3),2)</f>
         <v>0.87</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="72">
         <f t="shared" ref="R6" si="3">ROUND(($K6*0.8)+((($N6+$N7)/2)*0.2),2)</f>
         <v>0.87</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="72">
         <f t="shared" ref="S6" si="4">ROUND(($K6*0.9)+((($N6+$N7)/2)*0.1),2)</f>
         <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
       <c r="L7" s="25" t="s">
         <v>55</v>
       </c>
@@ -6530,41 +6572,41 @@
       <c r="N7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="76">
         <v>10</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="72">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="72">
         <v>0.99809999999999999</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="72">
         <v>0.44340000000000002</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="72">
         <v>0.93</v>
       </c>
       <c r="L8" s="24">
@@ -6576,40 +6618,40 @@
       <c r="N8" s="24">
         <v>0.93</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="72">
         <f t="shared" ref="O8" si="5">ROUND(($K8*0.5)+((($N8+$N9)/2)*0.5),2)</f>
         <v>0.93</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="72">
         <f t="shared" ref="P8" si="6">ROUND(($K8*0.6)+((($N8+$N9)/2)*0.4),2)</f>
         <v>0.93</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="72">
         <f t="shared" ref="Q8" si="7">ROUND(($K8*0.7)+((($N8+$N9)/2)*0.3),2)</f>
         <v>0.93</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="72">
         <f t="shared" ref="R8" si="8">ROUND(($K8*0.8)+((($N8+$N9)/2)*0.2),2)</f>
         <v>0.93</v>
       </c>
-      <c r="S8" s="63">
+      <c r="S8" s="72">
         <f t="shared" ref="S8" si="9">ROUND(($K8*0.9)+((($N8+$N9)/2)*0.1),2)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="64"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="25" t="s">
         <v>71</v>
       </c>
@@ -6619,41 +6661,41 @@
       <c r="N9" s="24">
         <v>0.93</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="71">
         <v>1E-4</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>20</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="69" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="21" t="s">
@@ -6665,40 +6707,40 @@
       <c r="N10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="66">
         <f t="shared" ref="O10" si="10">ROUND(($K10*0.5)+((($N10+$N11)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="66">
         <f t="shared" ref="P10" si="11">ROUND(($K10*0.6)+((($N10+$N11)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="66">
         <f t="shared" ref="Q10" si="12">ROUND(($K10*0.7)+((($N10+$N11)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R10" s="67">
+      <c r="R10" s="66">
         <f t="shared" ref="R10" si="13">ROUND(($K10*0.8)+((($N10+$N11)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="66">
         <f t="shared" ref="S10" si="14">ROUND(($K10*0.9)+((($N10+$N11)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="21" t="s">
         <v>71</v>
       </c>
@@ -6708,41 +6750,41 @@
       <c r="N11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="71">
         <v>1E-4</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <v>20</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="69" t="s">
         <v>71</v>
       </c>
       <c r="L12" s="21" t="s">
@@ -6754,40 +6796,40 @@
       <c r="N12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="66">
         <f t="shared" ref="O12" si="15">ROUND(($K12*0.5)+((($N12+$N13)/2)*0.5),2)</f>
         <v>0.94</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="66">
         <f t="shared" ref="P12" si="16">ROUND(($K12*0.6)+((($N12+$N13)/2)*0.4),2)</f>
         <v>0.94</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="66">
         <f t="shared" ref="Q12" si="17">ROUND(($K12*0.7)+((($N12+$N13)/2)*0.3),2)</f>
         <v>0.94</v>
       </c>
-      <c r="R12" s="67">
+      <c r="R12" s="66">
         <f t="shared" ref="R12" si="18">ROUND(($K12*0.8)+((($N12+$N13)/2)*0.2),2)</f>
         <v>0.94</v>
       </c>
-      <c r="S12" s="67">
+      <c r="S12" s="66">
         <f t="shared" ref="S12" si="19">ROUND(($K12*0.9)+((($N12+$N13)/2)*0.1),2)</f>
         <v>0.94</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="21" t="s">
         <v>71</v>
       </c>
@@ -6797,41 +6839,41 @@
       <c r="N13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <v>20</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="69">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="66">
         <v>0.99939999999999996</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="66">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="66">
         <v>0.92</v>
       </c>
       <c r="L14" s="23" t="s">
@@ -6843,40 +6885,40 @@
       <c r="N14" s="20">
         <v>0.92</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="66">
         <f t="shared" ref="O14" si="20">ROUND(($K14*0.5)+((($N14+$N15)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P14" s="67">
+      <c r="P14" s="66">
         <f t="shared" ref="P14" si="21">ROUND(($K14*0.6)+((($N14+$N15)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="66">
         <f t="shared" ref="Q14" si="22">ROUND(($K14*0.7)+((($N14+$N15)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R14" s="67">
+      <c r="R14" s="66">
         <f t="shared" ref="R14" si="23">ROUND(($K14*0.8)+((($N14+$N15)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S14" s="67">
+      <c r="S14" s="66">
         <f t="shared" ref="S14" si="24">ROUND(($K14*0.9)+((($N14+$N15)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="68"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="21" t="s">
         <v>71</v>
       </c>
@@ -6886,41 +6928,41 @@
       <c r="N15" s="20">
         <v>0.92</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="65">
         <v>1E-4</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="60">
         <v>30</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="63" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="17" t="s">
@@ -6932,40 +6974,40 @@
       <c r="N16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="73">
+      <c r="O16" s="61">
         <f t="shared" ref="O16" si="25">ROUND(($K16*0.5)+((($N16+$N17)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="61">
         <f t="shared" ref="P16" si="26">ROUND(($K16*0.6)+((($N16+$N17)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="61">
         <f t="shared" ref="Q16" si="27">ROUND(($K16*0.7)+((($N16+$N17)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="61">
         <f t="shared" ref="R16" si="28">ROUND(($K16*0.8)+((($N16+$N17)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S16" s="73">
+      <c r="S16" s="61">
         <f t="shared" ref="S16" si="29">ROUND(($K16*0.9)+((($N16+$N17)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="75"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="17" t="s">
         <v>71</v>
       </c>
@@ -6975,41 +7017,41 @@
       <c r="N17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="65">
         <v>1E-4</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="60">
         <v>30</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="63" t="s">
         <v>82</v>
       </c>
       <c r="L18" s="17" t="s">
@@ -7021,40 +7063,40 @@
       <c r="N18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="73">
+      <c r="O18" s="61">
         <f t="shared" ref="O18" si="30">ROUND(($K18*0.5)+((($N18+$N19)/2)*0.5),2)</f>
         <v>0.93</v>
       </c>
-      <c r="P18" s="73">
+      <c r="P18" s="61">
         <f t="shared" ref="P18" si="31">ROUND(($K18*0.6)+((($N18+$N19)/2)*0.4),2)</f>
         <v>0.93</v>
       </c>
-      <c r="Q18" s="73">
+      <c r="Q18" s="61">
         <f t="shared" ref="Q18" si="32">ROUND(($K18*0.7)+((($N18+$N19)/2)*0.3),2)</f>
         <v>0.93</v>
       </c>
-      <c r="R18" s="73">
+      <c r="R18" s="61">
         <f t="shared" ref="R18" si="33">ROUND(($K18*0.8)+((($N18+$N19)/2)*0.2),2)</f>
         <v>0.93</v>
       </c>
-      <c r="S18" s="73">
+      <c r="S18" s="61">
         <f t="shared" ref="S18" si="34">ROUND(($K18*0.9)+((($N18+$N19)/2)*0.1),2)</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="17" t="s">
         <v>71</v>
       </c>
@@ -7064,41 +7106,41 @@
       <c r="N19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="60">
         <v>30</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="61">
         <v>0.47739999999999999</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="61">
         <v>0.92</v>
       </c>
       <c r="L20" s="19" t="s">
@@ -7110,40 +7152,40 @@
       <c r="N20" s="16">
         <v>0.92</v>
       </c>
-      <c r="O20" s="73">
+      <c r="O20" s="61">
         <f t="shared" ref="O20" si="35">ROUND(($K20*0.5)+((($N20+$N21)/2)*0.5),2)</f>
         <v>0.92</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="61">
         <f t="shared" ref="P20" si="36">ROUND(($K20*0.6)+((($N20+$N21)/2)*0.4),2)</f>
         <v>0.92</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="61">
         <f t="shared" ref="Q20" si="37">ROUND(($K20*0.7)+((($N20+$N21)/2)*0.3),2)</f>
         <v>0.92</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="61">
         <f t="shared" ref="R20" si="38">ROUND(($K20*0.8)+((($N20+$N21)/2)*0.2),2)</f>
         <v>0.92</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="61">
         <f t="shared" ref="S20" si="39">ROUND(($K20*0.9)+((($N20+$N21)/2)*0.1),2)</f>
         <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="74"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="17" t="s">
         <v>71</v>
       </c>
@@ -7153,56 +7195,85 @@
       <c r="N21" s="16">
         <v>0.92</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="S14:S15"/>
     <mergeCell ref="B10:B11"/>
@@ -7227,77 +7298,48 @@
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7307,11 +7349,524 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE83C47B-C882-43E9-9BBC-6AEE02B199C4}">
+  <dimension ref="B2:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="60">
+        <v>10</v>
+      </c>
+      <c r="D4" s="60">
+        <v>0.92</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0.96042000000000005</v>
+      </c>
+      <c r="I4" s="61">
+        <f>ROUND(($D4*0.5)+((($G4+$G5)/2)*0.25)+($H4*0.25),4)</f>
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="J4" s="61">
+        <f>ROUND(($D4*0.6)+((($G4+$G5)/2)*0.2)+($H4*0.2),4)</f>
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K4" s="61">
+        <f>ROUND(($D4*0.7)+((($G4+$G5)/2)*0.15)+($H4*0.15),4)</f>
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="L4" s="61">
+        <f>ROUND(($D4*0.8)+((($G4+$G5)/2)*0.1)+($H4*0.1),4)</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M4" s="61">
+        <f>ROUND(($D4*0.9)+((($G4+$G5)/2)*0.05)+($H4*0.05),4)</f>
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="H6" s="61">
+        <v>0.96357000000000004</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" ref="I6" si="0">ROUND(($D6*0.5)+((($G6+$G7)/2)*0.25)+($H6*0.25),4)</f>
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" ref="J6" si="1">ROUND(($D6*0.6)+((($G6+$G7)/2)*0.2)+($H6*0.2),4)</f>
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="K6" s="61">
+        <f t="shared" ref="K6" si="2">ROUND(($D6*0.7)+((($G6+$G7)/2)*0.15)+($H6*0.15),4)</f>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="L6" s="61">
+        <f t="shared" ref="L6" si="3">ROUND(($D6*0.8)+((($G6+$G7)/2)*0.1)+($H6*0.1),4)</f>
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="M6" s="61">
+        <f t="shared" ref="M6" si="4">ROUND(($D6*0.9)+((($G6+$G7)/2)*0.05)+($H6*0.05),4)</f>
+        <v>0.92190000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="68">
+        <v>20</v>
+      </c>
+      <c r="D8" s="68">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="H8" s="66">
+        <v>0.96233999999999997</v>
+      </c>
+      <c r="I8" s="66">
+        <f t="shared" ref="I8" si="5">ROUND(($D8*0.5)+((($G8+$G9)/2)*0.25)+($H8*0.25),4)</f>
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="J8" s="66">
+        <f t="shared" ref="J8" si="6">ROUND(($D8*0.6)+((($G8+$G9)/2)*0.2)+($H8*0.2),4)</f>
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="K8" s="66">
+        <f t="shared" ref="K8" si="7">ROUND(($D8*0.7)+((($G8+$G9)/2)*0.15)+($H8*0.15),4)</f>
+        <v>0.9264</v>
+      </c>
+      <c r="L8" s="66">
+        <f t="shared" ref="L8" si="8">ROUND(($D8*0.8)+((($G8+$G9)/2)*0.1)+($H8*0.1),4)</f>
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="M8" s="66">
+        <f t="shared" ref="M8" si="9">ROUND(($D8*0.9)+((($G8+$G9)/2)*0.05)+($H8*0.05),4)</f>
+        <v>0.92210000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0.96423999999999999</v>
+      </c>
+      <c r="I10" s="66">
+        <f t="shared" ref="I10" si="10">ROUND(($D10*0.5)+((($G10+$G11)/2)*0.25)+($H10*0.25),4)</f>
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="J10" s="66">
+        <f t="shared" ref="J10" si="11">ROUND(($D10*0.6)+((($G10+$G11)/2)*0.2)+($H10*0.2),4)</f>
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="K10" s="66">
+        <f t="shared" ref="K10" si="12">ROUND(($D10*0.7)+((($G10+$G11)/2)*0.15)+($H10*0.15),4)</f>
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="L10" s="66">
+        <f t="shared" ref="L10" si="13">ROUND(($D10*0.8)+((($G10+$G11)/2)*0.1)+($H10*0.1),4)</f>
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="M10" s="66">
+        <f t="shared" ref="M10" si="14">ROUND(($D10*0.9)+((($G10+$G11)/2)*0.05)+($H10*0.05),4)</f>
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="82">
+        <v>30</v>
+      </c>
+      <c r="D12" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="79">
+        <v>0.96577000000000002</v>
+      </c>
+      <c r="I12" s="79">
+        <f t="shared" ref="I12" si="15">ROUND(($D12*0.5)+((($G12+$G13)/2)*0.25)+($H12*0.25),4)</f>
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="J12" s="79">
+        <f t="shared" ref="J12" si="16">ROUND(($D12*0.6)+((($G12+$G13)/2)*0.2)+($H12*0.2),4)</f>
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="K12" s="79">
+        <f t="shared" ref="K12" si="17">ROUND(($D12*0.7)+((($G12+$G13)/2)*0.15)+($H12*0.15),4)</f>
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="L12" s="79">
+        <f t="shared" ref="L12" si="18">ROUND(($D12*0.8)+((($G12+$G13)/2)*0.1)+($H12*0.1),4)</f>
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="M12" s="79">
+        <f t="shared" ref="M12" si="19">ROUND(($D12*0.9)+((($G12+$G13)/2)*0.05)+($H12*0.05),4)</f>
+        <v>0.92230000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="79">
+        <v>0.96869000000000005</v>
+      </c>
+      <c r="I14" s="79">
+        <f t="shared" ref="I14" si="20">ROUND(($D14*0.5)+((($G14+$G15)/2)*0.25)+($H14*0.25),4)</f>
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="J14" s="79">
+        <f t="shared" ref="J14" si="21">ROUND(($D14*0.6)+((($G14+$G15)/2)*0.2)+($H14*0.2),4)</f>
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="K14" s="79">
+        <f t="shared" ref="K14" si="22">ROUND(($D14*0.7)+((($G14+$G15)/2)*0.15)+($H14*0.15),4)</f>
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="L14" s="79">
+        <f t="shared" ref="L14" si="23">ROUND(($D14*0.8)+((($G14+$G15)/2)*0.1)+($H14*0.1),4)</f>
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="M14" s="79">
+        <f t="shared" ref="M14" si="24">ROUND(($D14*0.9)+((($G14+$G15)/2)*0.05)+($H14*0.05),4)</f>
+        <v>0.9224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:F15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAC08AF-DF26-43F0-A375-D0501BAADE5C}">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7323,39 +7878,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="38" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
@@ -7374,20 +7929,20 @@
       <c r="I3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="60">
         <v>10</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="60">
         <v>0.92</v>
       </c>
       <c r="E4" s="30" t="s">
@@ -7399,37 +7954,37 @@
       <c r="G4" s="16">
         <v>0.92</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="61">
         <v>0.96042000000000005</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="61">
         <v>0.95465</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f>ROUND(($D4*0.25)+((($G4+$G5)/2)*0.25)+($H4*0.25)+($I4*0.25),4)</f>
         <v>0.93879999999999997</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f>ROUND(($D4*0.4)+((($G4+$G5)/2)*0.2)+($H4*0.2)+($I4*0.2),4)</f>
         <v>0.93500000000000005</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f>ROUND(($D4*0.55)+((($G4+$G5)/2)*0.15)+($H4*0.15)+($I4*0.15),4)</f>
         <v>0.93130000000000002</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <f>ROUND(($D4*0.7)+((($G4+$G5)/2)*0.1)+($H4*0.1)+($I4*0.1),4)</f>
         <v>0.92749999999999999</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <f>ROUND(($D4*0.85)+((($G4+$G5)/2)*0.05)+($H4*0.05)+($I4*0.05),4)</f>
         <v>0.92379999999999995</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="78"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="16">
         <v>0.94</v>
       </c>
@@ -7439,20 +7994,20 @@
       <c r="G5" s="16">
         <v>0.92</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60">
         <v>0.92</v>
       </c>
       <c r="E6" s="16">
@@ -7464,37 +8019,37 @@
       <c r="G6" s="16">
         <v>0.91</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="61">
         <v>0.96357000000000004</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="61">
         <v>0.95714999999999995</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <f t="shared" ref="J6" si="0">ROUND(($D6*0.25)+((($G6+$G7)/2)*0.25)+($H6*0.25)+($I6*0.25),4)</f>
         <v>0.93889999999999996</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <f t="shared" ref="K6" si="1">ROUND(($D6*0.4)+((($G6+$G7)/2)*0.2)+($H6*0.2)+($I6*0.2),4)</f>
         <v>0.93510000000000004</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <f t="shared" ref="L6" si="2">ROUND(($D6*0.55)+((($G6+$G7)/2)*0.15)+($H6*0.15)+($I6*0.15),4)</f>
         <v>0.93140000000000001</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <f t="shared" ref="M6" si="3">ROUND(($D6*0.7)+((($G6+$G7)/2)*0.1)+($H6*0.1)+($I6*0.1),4)</f>
         <v>0.92759999999999998</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <f t="shared" ref="N6" si="4">ROUND(($D6*0.85)+((($G6+$G7)/2)*0.05)+($H6*0.05)+($I6*0.05),4)</f>
         <v>0.92379999999999995</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="78"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="16">
         <v>0.95</v>
       </c>
@@ -7504,22 +8059,22 @@
       <c r="G7" s="16">
         <v>0.92</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="68">
         <v>20</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="68">
         <v>0.92</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -7531,37 +8086,37 @@
       <c r="G8" s="20">
         <v>0.92</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>0.96233999999999997</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>0.95657999999999999</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f t="shared" ref="J8" si="5">ROUND(($D8*0.25)+((($G8+$G9)/2)*0.25)+($H8*0.25)+($I8*0.25),4)</f>
         <v>0.93969999999999998</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <f t="shared" ref="K8" si="6">ROUND(($D8*0.4)+((($G8+$G9)/2)*0.2)+($H8*0.2)+($I8*0.2),4)</f>
         <v>0.93579999999999997</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <f t="shared" ref="L8" si="7">ROUND(($D8*0.55)+((($G8+$G9)/2)*0.15)+($H8*0.15)+($I8*0.15),4)</f>
         <v>0.93179999999999996</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <f t="shared" ref="M8" si="8">ROUND(($D8*0.7)+((($G8+$G9)/2)*0.1)+($H8*0.1)+($I8*0.1),4)</f>
         <v>0.92789999999999995</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <f t="shared" ref="N8" si="9">ROUND(($D8*0.85)+((($G8+$G9)/2)*0.05)+($H8*0.05)+($I8*0.05),4)</f>
         <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="20">
         <v>0.94</v>
       </c>
@@ -7571,20 +8126,20 @@
       <c r="G9" s="20">
         <v>0.92</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68">
         <v>0.92</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -7596,37 +8151,37 @@
       <c r="G10" s="20">
         <v>0.92</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <v>0.96423999999999999</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <v>0.95799000000000001</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" ref="J10" si="10">ROUND(($D10*0.25)+((($G10+$G11)/2)*0.25)+($H10*0.25)+($I10*0.25),4)</f>
         <v>0.93930000000000002</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <f t="shared" ref="K10" si="11">ROUND(($D10*0.4)+((($G10+$G11)/2)*0.2)+($H10*0.2)+($I10*0.2),4)</f>
         <v>0.93540000000000001</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <f t="shared" ref="L10" si="12">ROUND(($D10*0.55)+((($G10+$G11)/2)*0.15)+($H10*0.15)+($I10*0.15),4)</f>
         <v>0.93159999999999998</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <f t="shared" ref="M10" si="13">ROUND(($D10*0.7)+((($G10+$G11)/2)*0.1)+($H10*0.1)+($I10*0.1),4)</f>
         <v>0.92769999999999997</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <f t="shared" ref="N10" si="14">ROUND(($D10*0.85)+((($G10+$G11)/2)*0.05)+($H10*0.05)+($I10*0.05),4)</f>
         <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="20">
         <v>0.94</v>
       </c>
@@ -7636,13 +8191,13 @@
       <c r="G11" s="20">
         <v>0.91</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="81" t="s">
@@ -7669,23 +8224,23 @@
       <c r="I12" s="79">
         <v>0.95491999999999999</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <f t="shared" ref="J12" si="15">ROUND(($D12*0.25)+((($G12+$G13)/2)*0.25)+($H12*0.25)+($I12*0.25),4)</f>
         <v>0.94020000000000004</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <f t="shared" ref="K12" si="16">ROUND(($D12*0.4)+((($G12+$G13)/2)*0.2)+($H12*0.2)+($I12*0.2),4)</f>
         <v>0.93610000000000004</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <f t="shared" ref="L12" si="17">ROUND(($D12*0.55)+((($G12+$G13)/2)*0.15)+($H12*0.15)+($I12*0.15),4)</f>
         <v>0.93210000000000004</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <f t="shared" ref="M12" si="18">ROUND(($D12*0.7)+((($G12+$G13)/2)*0.1)+($H12*0.1)+($I12*0.1),4)</f>
         <v>0.92810000000000004</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <f t="shared" ref="N12" si="19">ROUND(($D12*0.85)+((($G12+$G13)/2)*0.05)+($H12*0.05)+($I12*0.05),4)</f>
         <v>0.92400000000000004</v>
       </c>
@@ -7705,11 +8260,11 @@
       </c>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="81" t="s">
@@ -7734,23 +8289,23 @@
       <c r="I14" s="79">
         <v>0.96292999999999995</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="37">
         <f t="shared" ref="J14" si="20">ROUND(($D14*0.25)+((($G14+$G15)/2)*0.25)+($H14*0.25)+($I14*0.25),4)</f>
         <v>0.94289999999999996</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="37">
         <f t="shared" ref="K14" si="21">ROUND(($D14*0.4)+((($G14+$G15)/2)*0.2)+($H14*0.2)+($I14*0.2),4)</f>
         <v>0.93830000000000002</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="37">
         <f t="shared" ref="L14" si="22">ROUND(($D14*0.55)+((($G14+$G15)/2)*0.15)+($H14*0.15)+($I14*0.15),4)</f>
         <v>0.93369999999999997</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="37">
         <f t="shared" ref="M14" si="23">ROUND(($D14*0.7)+((($G14+$G15)/2)*0.1)+($H14*0.1)+($I14*0.1),4)</f>
         <v>0.92920000000000003</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="37">
         <f t="shared" ref="N14" si="24">ROUND(($D14*0.85)+((($G14+$G15)/2)*0.05)+($H14*0.05)+($I14*0.05),4)</f>
         <v>0.92459999999999998</v>
       </c>
@@ -7770,25 +8325,59 @@
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="80"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -7796,53 +8385,19 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
